--- a/Process Results/Unified_IBNP_ASL.xlsx
+++ b/Process Results/Unified_IBNP_ASL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306C206F-BF36-431B-A224-7162F597FC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7497B5-340B-451A-952E-8B707B8063D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2926,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Process Results/Unified_IBNP_ASL.xlsx
+++ b/Process Results/Unified_IBNP_ASL.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7497B5-340B-451A-952E-8B707B8063D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6850F750-3FF4-4A49-A091-E06CE6DDD41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Plot Patterns" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -47,7 +48,7 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1" calcOnSave="0"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +72,7 @@
     <author>Kevin Krebs</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>Paid Percentages</t>
   </si>
@@ -168,6 +169,36 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Cumulative Development</t>
+  </si>
+  <si>
+    <t>Volume All</t>
+  </si>
+  <si>
+    <t>Volume 12</t>
+  </si>
+  <si>
+    <t>Volume 6</t>
+  </si>
+  <si>
+    <t>Volume 3</t>
+  </si>
+  <si>
+    <t>Simple All</t>
+  </si>
+  <si>
+    <t>Simple 12</t>
+  </si>
+  <si>
+    <t>Simple 6</t>
+  </si>
+  <si>
+    <t>Simple 3</t>
+  </si>
+  <si>
+    <t>Incremental Pattern</t>
   </si>
   <si>
     <t>Raw</t>
@@ -272,7 +303,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +345,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,7 +462,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,6 +508,11 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,6 +541,3934 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative Development</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.35851910999772219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35851910999772219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63274114853820029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69266381033196966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74124569830674425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82222077077782563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85393761249509414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89333431140293995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90970117343127077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90970117343127077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92665086303547795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.946935462474916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96401063845493518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.1948218828422657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1948218828422657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36541459438444213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52399432517410161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57262501563086166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77572785136360944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82453588253914012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86317331076583781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89379928833755418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89379928833755418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9237678922904583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.946935462474916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96401063845493518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.8289319141326969E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8289319141326969E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1460846302614105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28480672560958092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30311123159607711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85252145641221599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99194920852016188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.102329009881918E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.102329009881918E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.102329009881918E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7687354427303077E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5626627336290598E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81534504118956685</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98497243980272675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8.8321780159581614E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8321780159581614E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8860977680159229E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5956962651095628E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6518356769222811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37879038876035082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48885621854731498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55389137693082369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57968638428835551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57968638428835551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59003309743698718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61369913809580701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98933248444659272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.6868853387270698E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6868853387270698E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0955696831932853E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7780892305553468E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1902537598356729E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35336395559658029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5059536354995865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54246197444180122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57614562001973213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57614562001973213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58814305385243015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61369913809580701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98933248444659272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>6.7439907698070036E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7439907698070036E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3867144560207029E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1263309238294318E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3525545324446362E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53191157023227131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99129184913717017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.8834868735070891E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8834868735070891E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8834868735070891E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.032635503389571E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1725175180482741E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36033477380124318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98273405274780223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.3439439671413773E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3439439671413773E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20872546170420611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36903292310571439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39639577391071401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81231373410179697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90052786021404407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92656255408793886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94392187582049802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94392187582049802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96037354193557167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9727445831935132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98167557708680364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F9DC-4199-82C8-7779A9F21464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346587632"/>
+        <c:axId val="1346584272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346587632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incremental Pattern</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1.7648742588427719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0947032794250959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0701377598340109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.10924187844335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0385746053183069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0461353362720891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0183210941518941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0186321509735721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0218902288322389</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.018032037722393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0373329506018181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1.8756342411508979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.433972077816964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.092807666267382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3546873262408721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.062919013529982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0468596079866339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0354806817932589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.033529456046721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02507942782793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.018032037722393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0373329506018181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$P$2:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>7.9874285714285724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.949600892988774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.064269921812129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8125696693030409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1635474990796351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.008116132772412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$Q$2:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>7.9547352597294143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0905406824146979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5263389905223708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.208043699346816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.015256833176249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$R$2:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>2.135484321769876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9668113498675872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.188741375831635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6945241457860591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2905718652132949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.13303535051015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.046570516227324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.017848811752468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0401096832730601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6120806157823611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.010782538450028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$S$2:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>3.0129941038081718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6668602438180553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1090933813703869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4329965641612592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.431820160167131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.072157479224684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0620940216364321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.020823613711213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0434521568791479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6120806157823611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.010782538450028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$T$2:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>7.9874285714285724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8037806706742154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07236073663568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.86585885731764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.863640320334262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0087846489108221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$U$2:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>10.448088985250481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1354611711485301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.73171771463528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.727280640668523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.017569297821644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$V$2:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>4.9315314062897349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.691786485402869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0785387940397551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.083628497771957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.113233256304808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0274878703795229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.017740340896629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.01676472802336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0125397139139649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.009016018861197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0186664753009089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DF98-49FF-9C58-D9FE2B9064B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346587632"/>
+        <c:axId val="1346584272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346587632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>169863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2610,7 +6582,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2618,34 +6590,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -2926,7 +6898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2948,18 +6920,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -3112,24 +7084,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>0.90783437806817102</v>
+        <v>1.102329009881918E-2</v>
       </c>
       <c r="F7" s="5">
-        <v>3.3925954082550912E-2</v>
+        <v>1.8289319141326969E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>8.8301616342087219E-2</v>
+        <v>0.1948218828422657</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H29" si="3">+I7/I8</f>
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>4.9018671827134902E-2</v>
+        <v>3.3439439671413773E-2</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ref="J7:J30" si="4">I7</f>
-        <v>4.9018671827134902E-2</v>
+        <v>3.3439439671413773E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3139,35 +7111,35 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>0.91542161494913366</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>0.49551381358933289</v>
+        <v>0.12519673773071971</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="2"/>
-        <v>0.61733821347269868</v>
+        <v>0.5331529879654977</v>
       </c>
       <c r="E8" s="5">
-        <v>0.90783437806817102</v>
+        <v>1.102329009881918E-2</v>
       </c>
       <c r="F8" s="5">
-        <v>3.3925954082550912E-2</v>
+        <v>1.8289319141326969E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>8.8301616342087219E-2</v>
+        <v>0.1948218828422657</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>0.52932786210734439</v>
+        <v>0.16020776477573326</v>
       </c>
       <c r="I8" s="5">
-        <v>4.9018671827134902E-2</v>
+        <v>3.3439439671413773E-2</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="4"/>
-        <v>4.9018671827134902E-2</v>
+        <v>3.3439439671413773E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3177,35 +7149,35 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>0.99837165502628877</v>
+        <v>0.12571128608923882</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>0.25582557737928552</v>
+        <v>0.51292549341572224</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="2"/>
-        <v>0.40296360107174628</v>
+        <v>0.69736364847659371</v>
       </c>
       <c r="E9" s="5">
-        <v>0.99171175690298263</v>
+        <v>1.102329009881918E-2</v>
       </c>
       <c r="F9" s="5">
-        <v>6.8466212549763011E-2</v>
+        <v>0.1460846302614105</v>
       </c>
       <c r="G9" s="5">
-        <v>0.14303604477255041</v>
+        <v>0.36541459438444213</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
-        <v>0.30345619528294271</v>
+        <v>0.56560119337757275</v>
       </c>
       <c r="I9" s="5">
-        <v>9.2605500930903611E-2</v>
+        <v>0.20872546170420611</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>9.2605500930903611E-2</v>
+        <v>0.20872546170420611</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3215,35 +7187,35 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.91697633671563628</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>0.87742086662746943</v>
+        <v>0.93961125791970457</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="2"/>
-        <v>0.78821448783562975</v>
+        <v>0.91507410761092312</v>
       </c>
       <c r="E10" s="5">
-        <v>0.99332923957748909</v>
+        <v>8.7687354427303077E-2</v>
       </c>
       <c r="F10" s="5">
-        <v>0.2676284883284184</v>
+        <v>0.28480672560958092</v>
       </c>
       <c r="G10" s="5">
-        <v>0.35496021077864881</v>
+        <v>0.52399432517410161</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>0.8390742529810068</v>
+        <v>0.93097088161398267</v>
       </c>
       <c r="I10" s="5">
-        <v>0.30516925464170602</v>
+        <v>0.36903292310571439</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="4"/>
-        <v>0.30516925464170602</v>
+        <v>0.36903292310571439</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3253,35 +7225,35 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11728363147554546</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="1"/>
-        <v>0.9998657470214013</v>
+        <v>0.35554674819763721</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="2"/>
-        <v>0.99993286900443235</v>
+        <v>0.73817771867321191</v>
       </c>
       <c r="E11" s="5">
-        <v>0.99332923957748909</v>
+        <v>9.5626627336290598E-2</v>
       </c>
       <c r="F11" s="5">
-        <v>0.30501723689008942</v>
+        <v>0.30311123159607711</v>
       </c>
       <c r="G11" s="5">
-        <v>0.45033454250928512</v>
+        <v>0.57262501563086166</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>0.99989285142805939</v>
+        <v>0.48798359213884568</v>
       </c>
       <c r="I11" s="5">
-        <v>0.36369755543984472</v>
+        <v>0.39639577391071401</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>0.36369755543984472</v>
+        <v>0.39639577391071401</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3291,35 +7263,35 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.82778462446407797</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8594406337437871</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
-        <v>0.9959785993060476</v>
+        <v>0.94080544921195253</v>
       </c>
       <c r="E12" s="5">
-        <v>0.99332923957748909</v>
+        <v>0.81534504118956685</v>
       </c>
       <c r="F12" s="5">
-        <v>0.3050581918609927</v>
+        <v>0.85252145641221599</v>
       </c>
       <c r="G12" s="5">
-        <v>0.45036477594506291</v>
+        <v>0.77572785136360944</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
-        <v>0.9983760604631754</v>
+        <v>0.90204175794041541</v>
       </c>
       <c r="I12" s="5">
-        <v>0.36373652928952072</v>
+        <v>0.81231373410179697</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>0.36373652928952072</v>
+        <v>0.81231373410179697</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3329,35 +7301,35 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>0.99332923957748909</v>
+        <v>0.98497243980272675</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>0.88064580187769548</v>
+        <v>0.99194920852016188</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="2"/>
-        <v>0.84454150966788599</v>
+        <v>0.9552379252870814</v>
       </c>
       <c r="E13" s="5">
-        <v>0.99332923957748909</v>
+        <v>0.98497243980272675</v>
       </c>
       <c r="F13" s="5">
-        <v>0.3050581918609927</v>
+        <v>0.99194920852016188</v>
       </c>
       <c r="G13" s="5">
-        <v>0.45218318572191862</v>
+        <v>0.82453588253914012</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>0.86610102074713791</v>
+        <v>0.97190184973585292</v>
       </c>
       <c r="I13" s="5">
-        <v>0.36432817621926239</v>
+        <v>0.90052786021404407</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="4"/>
-        <v>0.36432817621926239</v>
+        <v>0.90052786021404407</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3371,31 +7343,31 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" si="1"/>
-        <v>0.88953089830833432</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="2"/>
-        <v>0.9366736244853936</v>
+        <v>0.96573506158336742</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>0.34640282303118197</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.53541854431730496</v>
+        <v>0.86317331076583781</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0.90804981159144349</v>
+        <v>0.98160936601085791</v>
       </c>
       <c r="I14" s="5">
-        <v>0.42065321191398253</v>
+        <v>0.92656255408793886</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="4"/>
-        <v>0.42065321191398253</v>
+        <v>0.92656255408793886</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3413,27 +7385,27 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="2"/>
-        <v>0.99213975720705616</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>0.38942191180762092</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>0.57161697556228586</v>
+        <v>0.89379928833755418</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="3"/>
-        <v>0.99681495638113327</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5">
-        <v>0.46324904927489369</v>
+        <v>0.94392187582049802</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="4"/>
-        <v>0.46324904927489369</v>
+        <v>0.94392187582049802</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3447,31 +7419,31 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" si="1"/>
-        <v>0.96001791554182703</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="2"/>
-        <v>0.97960116377450535</v>
+        <v>0.96755829662081261</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>0.38942191180762092</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>0.57614562001973213</v>
+        <v>0.89379928833755418</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>0.96791601247942838</v>
+        <v>0.9828695133750599</v>
       </c>
       <c r="I16" s="5">
-        <v>0.46472923215025469</v>
+        <v>0.94392187582049802</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="4"/>
-        <v>0.46472923215025469</v>
+        <v>0.94392187582049802</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3485,31 +7457,31 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" si="1"/>
-        <v>0.92004419095752932</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="2"/>
-        <v>0.95835730791039964</v>
+        <v>0.97553416140535409</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>0.40564025473194848</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>0.58814305385243015</v>
+        <v>0.9237678922904583</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="3"/>
-        <v>0.93568275359597364</v>
+        <v>0.98728233343913618</v>
       </c>
       <c r="I17" s="5">
-        <v>0.4801338402903339</v>
+        <v>0.96037354193557167</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="4"/>
-        <v>0.4801338402903339</v>
+        <v>0.96037354193557167</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3523,31 +7495,31 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" si="1"/>
-        <v>0.4496076929173381</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="2"/>
-        <v>0.62031637264907424</v>
+        <v>0.9822873573186014</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>0.44089214270216881</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5">
-        <v>0.61369913809580701</v>
+        <v>0.946935462474916</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="3"/>
-        <v>0.52097573564175104</v>
+        <v>0.99090229592978785</v>
       </c>
       <c r="I18" s="5">
-        <v>0.51313742659582562</v>
+        <v>0.9727445831935132</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="4"/>
-        <v>0.51313742659582562</v>
+        <v>0.9727445831935132</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3561,31 +7533,31 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" si="1"/>
-        <v>0.98061521109966487</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>0.98933248444659272</v>
+        <v>0.96401063845493518</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>0.98061521109966487</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0.98933248444659272</v>
+        <v>0.96401063845493518</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>0.98495456024210026</v>
+        <v>0.98167557708680364</v>
       </c>
       <c r="I19" s="5">
-        <v>0.98495456024210026</v>
+        <v>0.98167557708680364</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="4"/>
-        <v>0.98495456024210026</v>
+        <v>0.98167557708680364</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4162,11 +8134,9 @@
         <v>0</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="4">
-        <v>1.1008171378091871</v>
-      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1.0019854721549639</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -4236,10 +8206,10 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
-        <v>12.81344380596018</v>
+        <v>2.575291560783902</v>
       </c>
       <c r="D39" s="4">
-        <v>1.0062576264822749</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -4248,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>3.2801944383984738</v>
+        <v>1.048451651833735</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -4269,34 +8239,34 @@
         <v>1</v>
       </c>
       <c r="N39" s="4">
-        <v>1</v>
+        <v>1.118607922950309</v>
       </c>
       <c r="O39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="P39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Q39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="S39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="T39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="U39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="V39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="W39" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="X39" s="4"/>
     </row>
@@ -4306,9 +8276,11 @@
         <v>2</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>1.372942884801549</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -4335,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="4">
-        <v>1</v>
+        <v>8.3449673893883318</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
@@ -4371,14 +8343,12 @@
         <v>3</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4">
-        <v>3.5990678404971508</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4">
         <v>1</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>3.0332826747720358</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -4387,19 +8357,19 @@
         <v>1</v>
       </c>
       <c r="H41" s="4">
-        <v>1</v>
+        <v>2.3957112079763521</v>
       </c>
       <c r="I41" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L41" s="4">
-        <v>1</v>
+        <v>1.521425882549774</v>
       </c>
       <c r="M41" s="4">
         <v>1</v>
@@ -4436,14 +8406,12 @@
         <v>4</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="4">
-        <v>8.7601145721446461</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4">
-        <v>1.030490047819512</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4">
-        <v>1.397909808432158</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -4455,40 +8423,40 @@
         <v>1</v>
       </c>
       <c r="I42" s="4">
-        <v>1.066164474897505</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4">
-        <v>1.09507018827756</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1.2498833645345511</v>
       </c>
       <c r="L42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="T42" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -4500,19 +8468,19 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
-        <v>2.4110169491525419</v>
+        <v>1.2693553009469569</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>1</v>
+        <v>1.288221815509216</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
       <c r="G43" s="4">
-        <v>23.87016695957821</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4">
         <v>1</v>
@@ -4559,12 +8527,14 @@
         <v>6</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="4">
+        <v>1.037650450085972</v>
+      </c>
       <c r="D44" s="4">
-        <v>1.0019854721549639</v>
+        <v>1.2921266174427961</v>
       </c>
       <c r="E44" s="4">
-        <v>1</v>
+        <v>1.0645544554455451</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -4576,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="4">
-        <v>1</v>
+        <v>1.745128259637188</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
@@ -4616,10 +8586,10 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
-        <v>2.575291560783902</v>
+        <v>1.099665637860082</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>1.0337582349043</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -4628,10 +8598,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="4">
-        <v>1.048451651833735</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4">
-        <v>1</v>
+        <v>1.7930351823221089</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
@@ -4649,16 +8619,16 @@
         <v>1</v>
       </c>
       <c r="N45" s="4">
-        <v>1.118607922950309</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -4673,13 +8643,13 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
-        <v>1</v>
+        <v>1.4154905957326041</v>
       </c>
       <c r="D46" s="4">
-        <v>1.372942884801549</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>1.76665512276033</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -4703,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="M46" s="4">
-        <v>8.3449673893883318</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4">
         <v>1</v>
@@ -4727,33 +8697,35 @@
         <v>9</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="4">
+        <v>1.2858780147498501</v>
+      </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>1.243778891134055</v>
       </c>
       <c r="E47" s="4">
-        <v>3.0332826747720358</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>1.000805626029287</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
       <c r="H47" s="4">
-        <v>2.3957112079763521</v>
+        <v>1.0201466749091621</v>
       </c>
       <c r="I47" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4">
-        <v>1.521425882549774</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4">
         <v>1</v>
@@ -4777,12 +8749,14 @@
         <v>10</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="4">
+        <v>4.6159285959491934</v>
+      </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>1.1626035608573431</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>1.071568389135525</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -4800,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="4">
-        <v>1.2498833645345511</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4">
         <v>1</v>
@@ -4824,37 +8798,37 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
-        <v>1.2693553009469569</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>18.04220430107527</v>
       </c>
       <c r="E49" s="4">
-        <v>1.288221815509216</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M49" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
@@ -4867,13 +8841,13 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
-        <v>1.037650450085972</v>
+        <v>2.289821814254859</v>
       </c>
       <c r="D50" s="4">
-        <v>1.2921266174427961</v>
+        <v>1.0048930024170251</v>
       </c>
       <c r="E50" s="4">
-        <v>1.0645544554455451</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -4885,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="4">
-        <v>1.745128259637188</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4">
         <v>1</v>
@@ -4905,11 +8879,9 @@
         <v>13</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="4">
-        <v>1.099665637860082</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="4">
-        <v>1.0337582349043</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -4921,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="4">
-        <v>1.7930351823221089</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4">
         <v>1</v>
@@ -4942,13 +8914,13 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
-        <v>1.4154905957326041</v>
+        <v>1.1847856412164051</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
       </c>
       <c r="E52" s="4">
-        <v>1.76665512276033</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -4974,25 +8946,25 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
-        <v>1.2858780147498501</v>
+        <v>1</v>
       </c>
       <c r="D53" s="4">
-        <v>1.243778891134055</v>
+        <v>1.044370381104188</v>
       </c>
       <c r="E53" s="4">
-        <v>1</v>
+        <v>1.0908813408813409</v>
       </c>
       <c r="F53" s="4">
-        <v>1.000805626029287</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" s="4">
-        <v>1.0201466749091621</v>
+        <v>1.052707893464933</v>
       </c>
       <c r="I53" s="4">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5002,19 +8974,19 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
-        <v>4.6159285959491934</v>
+        <v>7.9874285714285724</v>
       </c>
       <c r="D54" s="4">
-        <v>1.162603560857342</v>
+        <v>1.274574331091715</v>
       </c>
       <c r="E54" s="4">
-        <v>1.071568389135525</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
+        <v>1.2896273013021999</v>
       </c>
       <c r="G54" s="4">
-        <v>1</v>
+        <v>6.1818419220055709</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
@@ -5026,20 +8998,14 @@
         <v>17</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <v>18.04220430107527</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0.99999999999999989</v>
-      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <v>0.99999999999999989</v>
+        <v>89.720930232558146</v>
       </c>
       <c r="G55" s="4">
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5048,17 +9014,15 @@
         <v>18</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="4">
-        <v>2.289821814254859</v>
-      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="4">
-        <v>1.0048930024170251</v>
+        <v>3.8574890935530779</v>
       </c>
       <c r="E56" s="4">
-        <v>1</v>
+        <v>1.270922342297059</v>
       </c>
       <c r="F56" s="4">
-        <v>1</v>
+        <v>1.184595610045482</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5069,7 +9033,7 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>17.03868887694788</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -5081,12 +9045,8 @@
         <v>20</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4">
-        <v>1.1847856412164051</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -5094,9 +9054,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
@@ -5114,7 +9072,1556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0.35851910999772219</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0.1948218828422657</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1.8289319141326969E-2</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1.102329009881918E-2</v>
+      </c>
+      <c r="F2" s="32">
+        <v>8.8321780159581614E-3</v>
+      </c>
+      <c r="G2" s="32">
+        <v>2.6868853387270698E-3</v>
+      </c>
+      <c r="H2" s="32">
+        <v>6.7439907698070036E-4</v>
+      </c>
+      <c r="I2" s="32">
+        <v>9.8834868735070891E-4</v>
+      </c>
+      <c r="J2" s="32">
+        <v>3.3439439671413773E-2</v>
+      </c>
+      <c r="M2" s="31">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A24" si="0">+A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.35851910999772219</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.1948218828422657</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1.8289319141326969E-2</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1.102329009881918E-2</v>
+      </c>
+      <c r="F3" s="32">
+        <v>8.8321780159581614E-3</v>
+      </c>
+      <c r="G3" s="32">
+        <v>2.6868853387270698E-3</v>
+      </c>
+      <c r="H3" s="32">
+        <v>6.7439907698070036E-4</v>
+      </c>
+      <c r="I3" s="32">
+        <v>9.8834868735070891E-4</v>
+      </c>
+      <c r="J3" s="32">
+        <v>3.3439439671413773E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M24" si="1">+M2+1</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="17">
+        <v>1.7648742588427719</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1.8756342411508979</v>
+      </c>
+      <c r="P3" s="17">
+        <v>7.9874285714285724</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17">
+        <v>2.135484321769876</v>
+      </c>
+      <c r="S3" s="17">
+        <v>3.0129941038081718</v>
+      </c>
+      <c r="T3" s="17">
+        <v>7.9874285714285724</v>
+      </c>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17">
+        <v>4.9315314062897349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.63274114853820029</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.36541459438444213</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.1460846302614105</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1.102329009881918E-2</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1.8860977680159229E-2</v>
+      </c>
+      <c r="G4" s="32">
+        <v>8.0955696831932853E-3</v>
+      </c>
+      <c r="H4" s="32">
+        <v>5.3867144560207029E-3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>9.8834868735070891E-4</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0.20872546170420611</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1.0947032794250959</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1.433972077816964</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1.949600892988774</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>7.9547352597294143</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2.9668113498675872</v>
+      </c>
+      <c r="S4" s="17">
+        <v>4.6668602438180553</v>
+      </c>
+      <c r="T4" s="17">
+        <v>5.8037806706742154</v>
+      </c>
+      <c r="U4" s="17">
+        <v>10.448088985250481</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1.691786485402869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.69266381033196966</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.52399432517410161</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.28480672560958092</v>
+      </c>
+      <c r="E5" s="32">
+        <v>8.7687354427303077E-2</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5.5956962651095628E-2</v>
+      </c>
+      <c r="G5" s="32">
+        <v>3.7780892305553468E-2</v>
+      </c>
+      <c r="H5" s="32">
+        <v>3.1263309238294318E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1.032635503389571E-2</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0.36903292310571439</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="17">
+        <v>1.0701377598340109</v>
+      </c>
+      <c r="O5" s="17">
+        <v>1.092807666267382</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1.064269921812129</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1.0905406824146979</v>
+      </c>
+      <c r="R5" s="17">
+        <v>1.188741375831635</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1.1090933813703869</v>
+      </c>
+      <c r="T5" s="17">
+        <v>1.07236073663568</v>
+      </c>
+      <c r="U5" s="17">
+        <v>1.1354611711485301</v>
+      </c>
+      <c r="V5" s="17">
+        <v>1.0785387940397551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.74124569830674425</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.57262501563086166</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.30311123159607711</v>
+      </c>
+      <c r="E6" s="32">
+        <v>9.5626627336290598E-2</v>
+      </c>
+      <c r="F6" s="32">
+        <v>6.6518356769222811E-2</v>
+      </c>
+      <c r="G6" s="32">
+        <v>4.1902537598356729E-2</v>
+      </c>
+      <c r="H6" s="32">
+        <v>3.3525545324446362E-2</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1.1725175180482741E-2</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0.39639577391071401</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.10924187844335</v>
+      </c>
+      <c r="O6" s="17">
+        <v>1.3546873262408721</v>
+      </c>
+      <c r="P6" s="17">
+        <v>2.8125696693030409</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>8.5263389905223708</v>
+      </c>
+      <c r="R6" s="17">
+        <v>5.6945241457860591</v>
+      </c>
+      <c r="S6" s="17">
+        <v>8.4329965641612592</v>
+      </c>
+      <c r="T6" s="17">
+        <v>15.86585885731764</v>
+      </c>
+      <c r="U6" s="17">
+        <v>30.73171771463528</v>
+      </c>
+      <c r="V6" s="17">
+        <v>2.083628497771957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.82222077077782563</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.77572785136360944</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.85252145641221599</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.81534504118956685</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.37879038876035082</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.35336395559658029</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0.53191157023227131</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.36033477380124318</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0.81231373410179697</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1.0385746053183069</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1.062919013529982</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1.1635474990796351</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1.208043699346816</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1.2905718652132949</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1.431820160167131</v>
+      </c>
+      <c r="T7" s="17">
+        <v>1.863640320334262</v>
+      </c>
+      <c r="U7" s="17">
+        <v>2.727280640668523</v>
+      </c>
+      <c r="V7" s="17">
+        <v>1.113233256304808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0.85393761249509414</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.82453588253914012</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.99194920852016188</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.98497243980272675</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.48885621854731498</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.5059536354995865</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.99129184913717017</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0.98273405274780223</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0.90052786021404407</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1.0461353362720891</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1.0468596079866339</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1.008116132772412</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1.015256833176249</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1.13303535051015</v>
+      </c>
+      <c r="S8" s="17">
+        <v>1.072157479224684</v>
+      </c>
+      <c r="T8" s="17">
+        <v>1.0087846489108221</v>
+      </c>
+      <c r="U8" s="17">
+        <v>1.017569297821644</v>
+      </c>
+      <c r="V8" s="17">
+        <v>1.0274878703795229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.89333431140293995</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.86317331076583781</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.55389137693082369</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.54246197444180122</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0.92656255408793886</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1.0183210941518941</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1.0354806817932589</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1.046570516227324</v>
+      </c>
+      <c r="S9" s="17">
+        <v>1.0620940216364321</v>
+      </c>
+      <c r="T9" s="17">
+        <v>1</v>
+      </c>
+      <c r="U9" s="17">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1.017740340896629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.90970117343127077</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.89379928833755418</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.57968638428835551</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.57614562001973213</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="32">
+        <v>1</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0.94392187582049802</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>1</v>
+      </c>
+      <c r="R10" s="17">
+        <v>1</v>
+      </c>
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
+      <c r="T10" s="17">
+        <v>1</v>
+      </c>
+      <c r="U10" s="17">
+        <v>1</v>
+      </c>
+      <c r="V10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.90970117343127077</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.89379928833755418</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.57968638428835551</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0.57614562001973213</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0.94392187582049802</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="17">
+        <v>1.0186321509735721</v>
+      </c>
+      <c r="O11" s="17">
+        <v>1.033529456046721</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>1.017848811752468</v>
+      </c>
+      <c r="S11" s="17">
+        <v>1.020823613711213</v>
+      </c>
+      <c r="T11" s="17">
+        <v>1</v>
+      </c>
+      <c r="U11" s="17">
+        <v>1</v>
+      </c>
+      <c r="V11" s="17">
+        <v>1.01676472802336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.92665086303547795</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.9237678922904583</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0.59003309743698718</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0.58814305385243015</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="32">
+        <v>1</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0.96037354193557167</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.0218902288322389</v>
+      </c>
+      <c r="O12" s="17">
+        <v>1.02507942782793</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>1</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1.0401096832730601</v>
+      </c>
+      <c r="S12" s="17">
+        <v>1.0434521568791479</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1</v>
+      </c>
+      <c r="U12" s="17">
+        <v>1</v>
+      </c>
+      <c r="V12" s="17">
+        <v>1.0125397139139649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>0.946935462474916</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.946935462474916</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.61369913809580701</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.61369913809580701</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32">
+        <v>0.9727445831935132</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N13" s="17">
+        <v>1.018032037722393</v>
+      </c>
+      <c r="O13" s="17">
+        <v>1.018032037722393</v>
+      </c>
+      <c r="P13" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>1.6120806157823611</v>
+      </c>
+      <c r="S13" s="17">
+        <v>1.6120806157823611</v>
+      </c>
+      <c r="T13" s="17">
+        <v>1</v>
+      </c>
+      <c r="U13" s="17">
+        <v>1</v>
+      </c>
+      <c r="V13" s="17">
+        <v>1.009016018861197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>0.96401063845493518</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0.96401063845493518</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.98933248444659272</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.98933248444659272</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="32">
+        <v>0.98167557708680364</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1.0373329506018181</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1.0373329506018181</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1.010782538450028</v>
+      </c>
+      <c r="S14" s="17">
+        <v>1.010782538450028</v>
+      </c>
+      <c r="T14" s="17">
+        <v>1</v>
+      </c>
+      <c r="U14" s="17">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1.0186664753009089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15" s="17">
+        <v>1</v>
+      </c>
+      <c r="P15" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>1</v>
+      </c>
+      <c r="R15" s="17">
+        <v>1</v>
+      </c>
+      <c r="S15" s="17">
+        <v>1</v>
+      </c>
+      <c r="T15" s="17">
+        <v>1</v>
+      </c>
+      <c r="U15" s="17">
+        <v>1</v>
+      </c>
+      <c r="V15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="32">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16" s="17">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17">
+        <v>1</v>
+      </c>
+      <c r="P16" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
+        <v>1</v>
+      </c>
+      <c r="S16" s="17">
+        <v>1</v>
+      </c>
+      <c r="T16" s="17">
+        <v>1</v>
+      </c>
+      <c r="U16" s="17">
+        <v>1</v>
+      </c>
+      <c r="V16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="17">
+        <v>1</v>
+      </c>
+      <c r="V17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1</v>
+      </c>
+      <c r="O18" s="17">
+        <v>1</v>
+      </c>
+      <c r="P18" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>1</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1</v>
+      </c>
+      <c r="T18" s="17">
+        <v>1</v>
+      </c>
+      <c r="U18" s="17">
+        <v>1</v>
+      </c>
+      <c r="V18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1</v>
+      </c>
+      <c r="O19" s="17">
+        <v>1</v>
+      </c>
+      <c r="P19" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>1</v>
+      </c>
+      <c r="R19" s="17">
+        <v>1</v>
+      </c>
+      <c r="S19" s="17">
+        <v>1</v>
+      </c>
+      <c r="T19" s="17">
+        <v>1</v>
+      </c>
+      <c r="U19" s="17">
+        <v>1</v>
+      </c>
+      <c r="V19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1</v>
+      </c>
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="I20" s="32">
+        <v>1</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1</v>
+      </c>
+      <c r="P20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>1</v>
+      </c>
+      <c r="T20" s="17">
+        <v>1</v>
+      </c>
+      <c r="U20" s="17">
+        <v>1</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="I21" s="32">
+        <v>1</v>
+      </c>
+      <c r="J21" s="32">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>1</v>
+      </c>
+      <c r="R21" s="17">
+        <v>1</v>
+      </c>
+      <c r="S21" s="17">
+        <v>1</v>
+      </c>
+      <c r="T21" s="17">
+        <v>1</v>
+      </c>
+      <c r="U21" s="17">
+        <v>1</v>
+      </c>
+      <c r="V21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32">
+        <v>1</v>
+      </c>
+      <c r="J22" s="32">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1</v>
+      </c>
+      <c r="P22" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>1</v>
+      </c>
+      <c r="R22" s="17">
+        <v>1</v>
+      </c>
+      <c r="S22" s="17">
+        <v>1</v>
+      </c>
+      <c r="T22" s="17">
+        <v>1</v>
+      </c>
+      <c r="U22" s="17">
+        <v>1</v>
+      </c>
+      <c r="V22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32">
+        <v>1</v>
+      </c>
+      <c r="J23" s="32">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>1</v>
+      </c>
+      <c r="R23" s="17">
+        <v>1</v>
+      </c>
+      <c r="S23" s="17">
+        <v>1</v>
+      </c>
+      <c r="T23" s="17">
+        <v>1</v>
+      </c>
+      <c r="U23" s="17">
+        <v>1</v>
+      </c>
+      <c r="V23" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1</v>
+      </c>
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+      <c r="G24" s="32">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32">
+        <v>1</v>
+      </c>
+      <c r="J24" s="32">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1</v>
+      </c>
+      <c r="P24" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
+        <v>1</v>
+      </c>
+      <c r="S24" s="17">
+        <v>1</v>
+      </c>
+      <c r="T24" s="17">
+        <v>1</v>
+      </c>
+      <c r="U24" s="17">
+        <v>1</v>
+      </c>
+      <c r="V24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:AR54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5149,57 +10656,57 @@
   <sheetData>
     <row r="4" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H4" s="8">
-        <v>45382</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+        <v>45565</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -5207,57 +10714,57 @@
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -5269,139 +10776,139 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S7" s="11">
         <f>R8</f>
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="T7" s="11">
         <f>R9</f>
-        <v>44682</v>
+        <v>44866</v>
       </c>
       <c r="U7" s="11">
         <f>R10</f>
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="V7" s="11">
         <f>R11</f>
-        <v>44743</v>
+        <v>44927</v>
       </c>
       <c r="W7" s="11">
         <f>R12</f>
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="X7" s="11">
         <f>R13</f>
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="Y7" s="11">
         <f>R14</f>
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="Z7" s="11">
         <f>R15</f>
-        <v>44866</v>
+        <v>45047</v>
       </c>
       <c r="AA7" s="11">
         <f>R16</f>
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="AB7" s="11">
         <f>R17</f>
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="AC7" s="11">
         <f>R18</f>
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="AD7" s="11">
         <f>R19</f>
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="AE7" s="11">
         <f>R20</f>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="AF7" s="11">
         <f>R21</f>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="AG7" s="11">
         <f>R22</f>
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="AH7" s="11">
         <f>R23</f>
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="AI7" s="11">
         <f>R24</f>
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="AJ7" s="11">
         <f>R25</f>
-        <v>45170</v>
+        <v>45352</v>
       </c>
       <c r="AK7" s="11">
         <f>R26</f>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="AL7" s="11">
         <f>R27</f>
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="AM7" s="11">
         <f>R28</f>
-        <v>45261</v>
+        <v>45444</v>
       </c>
       <c r="AN7" s="11">
         <f>R29</f>
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="AO7" s="11">
         <f>R30</f>
-        <v>45323</v>
+        <v>45505</v>
       </c>
       <c r="AP7" s="11">
         <f>R31</f>
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="AQ7" s="11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AR7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <f t="shared" ref="A8:A30" si="0">DATE(YEAR(A9),MONTH(A9)-1,1)</f>
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="B8" s="13">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="C8" s="13">
         <f>+'Completion Factors'!J30</f>
@@ -5418,22 +10925,22 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13">
         <f t="shared" ref="G8:G31" si="3">B8+D8+F8</f>
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" ref="H8:H31" si="4">G8-B8</f>
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <v>4466.1799999999994</v>
+        <v>4375.0616666666656</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" ref="J8:J28" si="5">100*$G8/$I8</f>
-        <v>4.4642177431272367</v>
+        <v>66.210266750525818</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" ref="K8:K31" si="6">100*(B8/I8)</f>
-        <v>4.4642177431272367</v>
+        <v>66.210266750525818</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" ref="L8:L31" si="7">J8-K8</f>
@@ -5445,77 +10952,75 @@
       <c r="P8" s="15"/>
       <c r="R8" s="16">
         <f t="shared" ref="R8:R31" si="8">A8</f>
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="S8" s="17"/>
-      <c r="T8" s="17">
-        <v>181.12</v>
-      </c>
+      <c r="T8" s="17"/>
       <c r="U8" s="17">
-        <v>199.38</v>
+        <v>2891</v>
       </c>
       <c r="V8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="W8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="X8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="Y8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="Z8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AA8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AB8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AC8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AD8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AE8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AF8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AG8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AH8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AI8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AJ8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AK8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AL8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AM8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AN8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AO8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AP8" s="17">
-        <v>199.38</v>
+        <v>2896.74</v>
       </c>
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
@@ -5523,10 +11028,10 @@
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
-        <v>44682</v>
+        <v>44866</v>
       </c>
       <c r="B9" s="13">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="C9" s="13">
         <f>+'Completion Factors'!J29</f>
@@ -5543,22 +11048,22 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13">
         <f t="shared" si="3"/>
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="13">
-        <v>4457.45</v>
+        <v>4312.8950000000004</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="5"/>
-        <v>71.000908591234904</v>
+        <v>186.56749120950082</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="6"/>
-        <v>71.000908591234904</v>
+        <v>186.56749120950082</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="7"/>
@@ -5570,74 +11075,74 @@
       <c r="P9" s="13"/>
       <c r="R9" s="16">
         <f t="shared" si="8"/>
-        <v>44682</v>
+        <v>44866</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17">
-        <v>74.83</v>
+        <v>2664.11</v>
       </c>
       <c r="U9" s="17">
-        <v>958.83</v>
+        <v>6860.8600000000006</v>
       </c>
       <c r="V9" s="17">
-        <v>964.83</v>
+        <v>6860.8600000000006</v>
       </c>
       <c r="W9" s="17">
-        <v>964.83</v>
+        <v>6860.8600000000006</v>
       </c>
       <c r="X9" s="17">
-        <v>964.83</v>
+        <v>6860.8600000000006</v>
       </c>
       <c r="Y9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="Z9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="AA9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="AB9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="AC9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="AD9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="AE9" s="17">
-        <v>3164.83</v>
+        <v>7193.2800000000007</v>
       </c>
       <c r="AF9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AG9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AH9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AI9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AJ9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AK9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AL9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AM9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AN9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AO9" s="17">
-        <v>3164.83</v>
+        <v>8046.4600000000009</v>
       </c>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="13"/>
@@ -5646,10 +11151,10 @@
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="B10" s="13">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="C10" s="13">
         <f>+'Completion Factors'!J28</f>
@@ -5666,22 +11171,22 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13">
         <f t="shared" si="3"/>
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>4445.47</v>
+        <v>4277.5</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="5"/>
-        <v>7.2014882565847929</v>
+        <v>11.067445938047925</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="6"/>
-        <v>7.2014882565847929</v>
+        <v>11.067445938047927</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="7"/>
@@ -5693,69 +11198,71 @@
       <c r="P10" s="13"/>
       <c r="R10" s="16">
         <f t="shared" si="8"/>
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="T10" s="17">
+        <v>41.32</v>
+      </c>
       <c r="U10" s="17">
-        <v>320.14</v>
+        <v>41.32</v>
       </c>
       <c r="V10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="W10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="X10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="Y10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="Z10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="AA10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="AB10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="AC10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="AD10" s="17">
-        <v>320.14</v>
+        <v>56.73</v>
       </c>
       <c r="AE10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AF10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AG10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AH10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AI10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AJ10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AK10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AL10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AM10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AN10" s="17">
-        <v>320.14</v>
+        <v>473.41</v>
       </c>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
@@ -5765,10 +11272,10 @@
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
-        <v>44743</v>
+        <v>44927</v>
       </c>
       <c r="B11" s="13">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="C11" s="13">
         <f>+'Completion Factors'!J27</f>
@@ -5785,22 +11292,22 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13">
         <f t="shared" si="3"/>
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>4426.1266666666661</v>
+        <v>4272.4449999999997</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="5"/>
-        <v>15.701764823720968</v>
+        <v>34.054739148192667</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="6"/>
-        <v>15.701764823720968</v>
+        <v>34.054739148192667</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="7"/>
@@ -5812,68 +11319,66 @@
       <c r="P11" s="13"/>
       <c r="R11" s="16">
         <f t="shared" si="8"/>
-        <v>44743</v>
+        <v>44927</v>
       </c>
       <c r="S11" s="17"/>
-      <c r="T11" s="17">
-        <v>193.1</v>
-      </c>
+      <c r="T11" s="17"/>
       <c r="U11" s="17">
-        <v>694.98</v>
+        <v>131.6</v>
       </c>
       <c r="V11" s="17">
-        <v>694.98</v>
+        <v>131.6</v>
       </c>
       <c r="W11" s="17">
-        <v>694.98</v>
+        <v>399.17999999999989</v>
       </c>
       <c r="X11" s="17">
-        <v>694.98</v>
+        <v>399.17999999999989</v>
       </c>
       <c r="Y11" s="17">
-        <v>694.98</v>
+        <v>399.17999999999989</v>
       </c>
       <c r="Z11" s="17">
-        <v>694.98</v>
+        <v>956.31999999999994</v>
       </c>
       <c r="AA11" s="17">
-        <v>694.98</v>
+        <v>956.31999999999994</v>
       </c>
       <c r="AB11" s="17">
-        <v>694.98</v>
+        <v>956.31999999999994</v>
       </c>
       <c r="AC11" s="17">
-        <v>694.98</v>
+        <v>956.31999999999994</v>
       </c>
       <c r="AD11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AE11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AF11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AG11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AH11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AI11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AJ11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AK11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AL11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AM11" s="17">
-        <v>694.98</v>
+        <v>1454.97</v>
       </c>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
@@ -5884,10 +11389,10 @@
     <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="B12" s="13">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="C12" s="13">
         <f>++'Completion Factors'!J26</f>
@@ -5904,22 +11409,22 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13">
         <f t="shared" si="3"/>
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>4393.6783333333333</v>
+        <v>4233.7550000000001</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="5"/>
-        <v>18.731457734540573</v>
+        <v>49.989666383623991</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="6"/>
-        <v>18.731457734540573</v>
+        <v>49.989666383623991</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="7"/>
@@ -5931,65 +11436,63 @@
       <c r="P12" s="13"/>
       <c r="R12" s="16">
         <f t="shared" si="8"/>
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="S12" s="17"/>
-      <c r="T12" s="17">
-        <v>55.86</v>
-      </c>
+      <c r="T12" s="17"/>
       <c r="U12" s="17">
-        <v>489.34</v>
+        <v>1693.31</v>
       </c>
       <c r="V12" s="17">
-        <v>504.26</v>
+        <v>1693.31</v>
       </c>
       <c r="W12" s="17">
-        <v>704.91</v>
+        <v>1693.31</v>
       </c>
       <c r="X12" s="17">
-        <v>704.91</v>
+        <v>1693.31</v>
       </c>
       <c r="Y12" s="17">
-        <v>704.91</v>
+        <v>1693.31</v>
       </c>
       <c r="Z12" s="17">
-        <v>704.91</v>
+        <v>1693.31</v>
       </c>
       <c r="AA12" s="17">
-        <v>751.55</v>
+        <v>1693.31</v>
       </c>
       <c r="AB12" s="17">
-        <v>823</v>
+        <v>1693.31</v>
       </c>
       <c r="AC12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AD12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AE12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AF12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AG12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AH12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AI12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AJ12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AK12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AL12" s="17">
-        <v>823</v>
+        <v>2116.44</v>
       </c>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
@@ -6001,10 +11504,10 @@
     <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="B13" s="13">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="C13" s="13">
         <f>++'Completion Factors'!J25</f>
@@ -6021,22 +11524,22 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13">
         <f t="shared" si="3"/>
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="13">
-        <v>4373.916666666667</v>
+        <v>4154.583333333333</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="5"/>
-        <v>24.842037075847351</v>
+        <v>64.548711262661726</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="6"/>
-        <v>24.842037075847351</v>
+        <v>64.548711262661726</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="7"/>
@@ -6048,62 +11551,62 @@
       <c r="P13" s="13"/>
       <c r="R13" s="16">
         <f t="shared" si="8"/>
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17">
-        <v>18.88</v>
+        <v>1639.99</v>
       </c>
       <c r="U13" s="17">
-        <v>45.52</v>
+        <v>2081.73</v>
       </c>
       <c r="V13" s="17">
-        <v>45.52</v>
+        <v>2081.73</v>
       </c>
       <c r="W13" s="17">
-        <v>45.52</v>
+        <v>2681.73</v>
       </c>
       <c r="X13" s="17">
-        <v>45.52</v>
+        <v>2681.73</v>
       </c>
       <c r="Y13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="Z13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AA13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AB13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AC13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AD13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AE13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AF13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AG13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AH13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AI13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AJ13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AK13" s="17">
-        <v>1086.57</v>
+        <v>2681.73</v>
       </c>
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
@@ -6116,10 +11619,10 @@
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="B14" s="13">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="C14" s="13">
         <f>++'Completion Factors'!J24</f>
@@ -6136,22 +11639,22 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13">
         <f t="shared" si="3"/>
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>4375.0616666666656</v>
+        <v>4124.0950000000003</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="5"/>
-        <v>66.210266750525818</v>
+        <v>23.886210186719751</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="6"/>
-        <v>66.210266750525818</v>
+        <v>23.886210186719754</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="7"/>
@@ -6163,57 +11666,59 @@
       <c r="P14" s="13"/>
       <c r="R14" s="16">
         <f t="shared" si="8"/>
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="T14" s="17">
+        <v>395.48</v>
+      </c>
       <c r="U14" s="17">
-        <v>2891</v>
+        <v>410.37</v>
       </c>
       <c r="V14" s="17">
-        <v>2896.74</v>
+        <v>530.25</v>
       </c>
       <c r="W14" s="17">
-        <v>2896.74</v>
+        <v>564.48</v>
       </c>
       <c r="X14" s="17">
-        <v>2896.74</v>
+        <v>564.48</v>
       </c>
       <c r="Y14" s="17">
-        <v>2896.74</v>
+        <v>564.48</v>
       </c>
       <c r="Z14" s="17">
-        <v>2896.74</v>
+        <v>564.48</v>
       </c>
       <c r="AA14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AB14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AC14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AD14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AE14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AF14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AG14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AH14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AI14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AJ14" s="17">
-        <v>2896.74</v>
+        <v>985.09</v>
       </c>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
@@ -6227,10 +11732,10 @@
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
-        <v>44866</v>
+        <v>45047</v>
       </c>
       <c r="B15" s="13">
-        <v>8046.4600000000009</v>
+        <v>950.99</v>
       </c>
       <c r="C15" s="13">
         <f>++'Completion Factors'!J23</f>
@@ -6247,22 +11752,22 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13">
         <f t="shared" si="3"/>
-        <v>8046.4600000000009</v>
+        <v>950.99</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>4312.8950000000004</v>
+        <v>4092.936666666666</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="5"/>
-        <v>186.56749120950082</v>
+        <v>23.234906314211234</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="6"/>
-        <v>186.56749120950082</v>
+        <v>23.234906314211234</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="7"/>
@@ -6274,56 +11779,56 @@
       <c r="P15" s="13"/>
       <c r="R15" s="16">
         <f t="shared" si="8"/>
-        <v>44866</v>
+        <v>45047</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17">
-        <v>2664.11</v>
+        <v>466.56</v>
       </c>
       <c r="U15" s="17">
-        <v>6860.8600000000006</v>
+        <v>513.05999999999995</v>
       </c>
       <c r="V15" s="17">
-        <v>6860.8600000000006</v>
+        <v>530.38</v>
       </c>
       <c r="W15" s="17">
-        <v>6860.8600000000006</v>
+        <v>530.38</v>
       </c>
       <c r="X15" s="17">
-        <v>6860.8600000000006</v>
+        <v>530.38</v>
       </c>
       <c r="Y15" s="17">
-        <v>7193.2800000000007</v>
+        <v>530.38</v>
       </c>
       <c r="Z15" s="17">
-        <v>7193.2800000000007</v>
+        <v>950.99</v>
       </c>
       <c r="AA15" s="17">
-        <v>7193.2800000000007</v>
+        <v>950.99</v>
       </c>
       <c r="AB15" s="17">
-        <v>7193.2800000000007</v>
+        <v>950.99</v>
       </c>
       <c r="AC15" s="17">
-        <v>7193.2800000000007</v>
+        <v>950.99</v>
       </c>
       <c r="AD15" s="17">
-        <v>7193.2800000000007</v>
+        <v>950.99</v>
       </c>
       <c r="AE15" s="17">
-        <v>7193.2800000000007</v>
+        <v>950.99</v>
       </c>
       <c r="AF15" s="17">
-        <v>8046.4600000000009</v>
+        <v>950.99</v>
       </c>
       <c r="AG15" s="17">
-        <v>8046.4600000000009</v>
+        <v>950.99</v>
       </c>
       <c r="AH15" s="17">
-        <v>8046.4600000000009</v>
+        <v>950.99</v>
       </c>
       <c r="AI15" s="17">
-        <v>8046.4600000000009</v>
+        <v>950.99</v>
       </c>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
@@ -6338,10 +11843,10 @@
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="B16" s="13">
-        <v>473.41</v>
+        <v>969.24</v>
       </c>
       <c r="C16" s="13">
         <f>++'Completion Factors'!J22</f>
@@ -6358,22 +11863,22 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13">
         <f t="shared" si="3"/>
-        <v>473.41</v>
+        <v>969.24</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>4277.5</v>
+        <v>4057.166666666667</v>
       </c>
       <c r="J16" s="13">
         <f t="shared" si="5"/>
-        <v>11.067445938047925</v>
+        <v>23.8895781128045</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="6"/>
-        <v>11.067445938047927</v>
+        <v>23.889578112804504</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="7"/>
@@ -6385,53 +11890,53 @@
       <c r="P16" s="13"/>
       <c r="R16" s="16">
         <f t="shared" si="8"/>
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17">
-        <v>41.32</v>
+        <v>387.59</v>
       </c>
       <c r="U16" s="17">
-        <v>41.32</v>
+        <v>548.63</v>
       </c>
       <c r="V16" s="17">
-        <v>56.73</v>
+        <v>548.63</v>
       </c>
       <c r="W16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="X16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="Y16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="Z16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="AA16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="AB16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="AC16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="AD16" s="17">
-        <v>56.73</v>
+        <v>969.24</v>
       </c>
       <c r="AE16" s="17">
-        <v>473.41</v>
+        <v>969.24</v>
       </c>
       <c r="AF16" s="17">
-        <v>473.41</v>
+        <v>969.24</v>
       </c>
       <c r="AG16" s="17">
-        <v>473.41</v>
+        <v>969.24</v>
       </c>
       <c r="AH16" s="17">
-        <v>473.41</v>
+        <v>969.24</v>
       </c>
       <c r="AI16" s="17"/>
       <c r="AJ16" s="17"/>
@@ -6447,10 +11952,10 @@
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="B17" s="13">
-        <v>1454.97</v>
+        <v>2293.81</v>
       </c>
       <c r="C17" s="13">
         <f>++'Completion Factors'!J21</f>
@@ -6467,22 +11972,22 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13">
         <f t="shared" si="3"/>
-        <v>1454.97</v>
+        <v>2293.81</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <v>4272.4449999999997</v>
+        <v>4056.085</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="5"/>
-        <v>34.054739148192667</v>
+        <v>56.552315841507266</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="6"/>
-        <v>34.054739148192667</v>
+        <v>56.552315841507259</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="7"/>
@@ -6494,48 +11999,50 @@
       <c r="P17" s="13"/>
       <c r="R17" s="16">
         <f t="shared" si="8"/>
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="T17" s="17">
+        <v>1404.76</v>
+      </c>
       <c r="U17" s="17">
-        <v>131.6</v>
+        <v>1806.35</v>
       </c>
       <c r="V17" s="17">
-        <v>131.6</v>
+        <v>2246.6999999999998</v>
       </c>
       <c r="W17" s="17">
-        <v>399.17999999999989</v>
+        <v>2246.6999999999998</v>
       </c>
       <c r="X17" s="17">
-        <v>399.17999999999989</v>
+        <v>2248.5100000000002</v>
       </c>
       <c r="Y17" s="17">
-        <v>399.17999999999989</v>
+        <v>2248.5100000000002</v>
       </c>
       <c r="Z17" s="17">
-        <v>956.31999999999994</v>
+        <v>2293.81</v>
       </c>
       <c r="AA17" s="17">
-        <v>956.31999999999994</v>
+        <v>2293.81</v>
       </c>
       <c r="AB17" s="17">
-        <v>956.31999999999994</v>
+        <v>2293.81</v>
       </c>
       <c r="AC17" s="17">
-        <v>956.31999999999994</v>
+        <v>2293.81</v>
       </c>
       <c r="AD17" s="17">
-        <v>1454.97</v>
+        <v>2293.81</v>
       </c>
       <c r="AE17" s="17">
-        <v>1454.97</v>
+        <v>2293.81</v>
       </c>
       <c r="AF17" s="17">
-        <v>1454.97</v>
+        <v>2293.81</v>
       </c>
       <c r="AG17" s="17">
-        <v>1454.97</v>
+        <v>2293.81</v>
       </c>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
@@ -6552,10 +12059,10 @@
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="B18" s="13">
-        <v>2116.44</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="C18" s="13">
         <f>++'Completion Factors'!J20</f>
@@ -6572,22 +12079,22 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13">
         <f t="shared" si="3"/>
-        <v>2116.44</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>4233.7550000000001</v>
+        <v>4047.085</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" si="5"/>
-        <v>49.989666383623991</v>
+        <v>20.695636488979108</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="6"/>
-        <v>49.989666383623991</v>
+        <v>20.695636488979108</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="7"/>
@@ -6599,45 +12106,47 @@
       <c r="P18" s="13"/>
       <c r="R18" s="16">
         <f t="shared" si="8"/>
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="T18" s="17">
+        <v>145.65</v>
+      </c>
       <c r="U18" s="17">
-        <v>1693.31</v>
+        <v>672.31000000000006</v>
       </c>
       <c r="V18" s="17">
-        <v>1693.31</v>
+        <v>781.63000000000011</v>
       </c>
       <c r="W18" s="17">
-        <v>1693.31</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="X18" s="17">
-        <v>1693.31</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="Y18" s="17">
-        <v>1693.31</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="Z18" s="17">
-        <v>1693.31</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AA18" s="17">
-        <v>1693.31</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AB18" s="17">
-        <v>1693.31</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AC18" s="17">
-        <v>2116.44</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AD18" s="17">
-        <v>2116.44</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AE18" s="17">
-        <v>2116.44</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AF18" s="17">
-        <v>2116.44</v>
+        <v>837.57000000000016</v>
       </c>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
@@ -6655,94 +12164,94 @@
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="13">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="C19" s="13">
         <f>++'Completion Factors'!J19</f>
-        <v>0.98495456024210026</v>
+        <v>0.98167557708680364</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>40.964130519924822</v>
+        <v>12.528378227711045</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="2"/>
-        <v>40.964130519924822</v>
+        <v>12.528378227711045</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
         <f t="shared" si="3"/>
-        <v>2722.6941305199248</v>
+        <v>683.69837822771115</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="4"/>
-        <v>40.964130519924765</v>
+        <v>12.528378227711073</v>
       </c>
       <c r="I19" s="13">
-        <v>4154.583333333333</v>
+        <v>4013.103333333333</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="5"/>
-        <v>65.53470979087173</v>
+        <v>17.036650228984332</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="6"/>
-        <v>64.548711262661726</v>
+        <v>16.724463445164218</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="7"/>
-        <v>0.98599852821000411</v>
+        <v>0.31218678382011333</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" ref="M19:M31" si="9">SUM(G8:G19)/SUM(I8:I19)*100</f>
-        <v>45.985908472174273</v>
+        <v>48.763998202789452</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="R19" s="16">
         <f t="shared" si="8"/>
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17">
-        <v>1639.99</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="U19" s="17">
-        <v>2081.73</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="V19" s="17">
-        <v>2081.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="W19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="X19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="Y19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="Z19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="AA19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="AB19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="AC19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="AD19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="AE19" s="17">
-        <v>2681.73</v>
+        <v>671.17000000000007</v>
       </c>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
@@ -6761,97 +12270,97 @@
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="13">
-        <v>985.09</v>
+        <v>170.46</v>
       </c>
       <c r="C20" s="13">
         <f>++'Completion Factors'!J18</f>
-        <v>0.51313742659582562</v>
+        <v>0.9727445831935132</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>934.64913603442812</v>
+        <v>4.7761338681332965</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="2"/>
-        <v>934.64913603442812</v>
+        <v>4.7761338681332965</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
         <f t="shared" si="3"/>
-        <v>1919.7391360344282</v>
+        <v>175.23613386813329</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="4"/>
-        <v>934.64913603442812</v>
+        <v>4.7761338681332859</v>
       </c>
       <c r="I20" s="13">
-        <v>4124.0950000000003</v>
+        <v>3974.7616666666672</v>
       </c>
       <c r="J20" s="13">
         <f t="shared" si="5"/>
-        <v>46.549343214315577</v>
+        <v>4.408720536320625</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="6"/>
-        <v>23.886210186719754</v>
+        <v>4.2885590205198882</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="7"/>
-        <v>22.663133027595823</v>
+        <v>0.12016151580073675</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="9"/>
-        <v>49.607469750671463</v>
+        <v>43.672332972546052</v>
       </c>
       <c r="N20" s="18">
         <f t="shared" ref="N20:N31" si="10">J20/J8</f>
-        <v>10.427211639929377</v>
+        <v>6.6586660237033593E-2</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" ref="O20:O31" si="11">I20/I8</f>
-        <v>0.92340546059496054</v>
+        <v>0.90850414679869307</v>
       </c>
       <c r="P20" s="13"/>
       <c r="R20" s="16">
         <f t="shared" si="8"/>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17">
-        <v>395.48</v>
+        <v>74.080000000000013</v>
       </c>
       <c r="U20" s="17">
-        <v>410.37</v>
+        <v>169.63</v>
       </c>
       <c r="V20" s="17">
-        <v>530.25</v>
+        <v>170.46</v>
       </c>
       <c r="W20" s="17">
-        <v>564.48</v>
+        <v>170.46</v>
       </c>
       <c r="X20" s="17">
-        <v>564.48</v>
+        <v>170.46</v>
       </c>
       <c r="Y20" s="17">
-        <v>564.48</v>
+        <v>170.46</v>
       </c>
       <c r="Z20" s="17">
-        <v>564.48</v>
+        <v>170.46</v>
       </c>
       <c r="AA20" s="17">
-        <v>985.09</v>
+        <v>170.46</v>
       </c>
       <c r="AB20" s="17">
-        <v>985.09</v>
+        <v>170.46</v>
       </c>
       <c r="AC20" s="17">
-        <v>985.09</v>
+        <v>170.46</v>
       </c>
       <c r="AD20" s="17">
-        <v>985.09</v>
+        <v>170.46</v>
       </c>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
@@ -6871,94 +12380,92 @@
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="13">
-        <v>950.99</v>
+        <v>353.23</v>
       </c>
       <c r="C21" s="13">
         <f>++'Completion Factors'!J17</f>
-        <v>0.4801338402903339</v>
+        <v>0.96037354193557167</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>1029.6868867300466</v>
+        <v>14.574801544290187</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="2"/>
-        <v>1029.6868867300466</v>
+        <v>14.574801544290187</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13">
         <f t="shared" si="3"/>
-        <v>1980.6768867300466</v>
+        <v>367.80480154429023</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="4"/>
-        <v>1029.6868867300466</v>
+        <v>14.57480154429021</v>
       </c>
       <c r="I21" s="13">
-        <v>4092.936666666666</v>
+        <v>3943.9416666666671</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" si="5"/>
-        <v>48.3925613328176</v>
+        <v>9.3258174849008544</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="6"/>
-        <v>23.234906314211234</v>
+        <v>8.9562683694189182</v>
       </c>
       <c r="L21" s="13">
         <f t="shared" si="7"/>
-        <v>25.157655018606366</v>
+        <v>0.36954911548193614</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="9"/>
-        <v>47.658597830531932</v>
+        <v>28.407535712702881</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="10"/>
-        <v>0.68157664870772772</v>
+        <v>4.9986294098947198E-2</v>
       </c>
       <c r="O21" s="18">
         <f t="shared" si="11"/>
-        <v>0.91822379761223705</v>
+        <v>0.91445343943376012</v>
       </c>
       <c r="P21" s="13"/>
       <c r="R21" s="16">
         <f t="shared" si="8"/>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="S21" s="17"/>
-      <c r="T21" s="17">
-        <v>466.56</v>
-      </c>
+      <c r="T21" s="17"/>
       <c r="U21" s="17">
-        <v>513.05999999999995</v>
+        <v>353.23</v>
       </c>
       <c r="V21" s="17">
-        <v>530.38</v>
+        <v>353.23</v>
       </c>
       <c r="W21" s="17">
-        <v>530.38</v>
+        <v>353.23</v>
       </c>
       <c r="X21" s="17">
-        <v>530.38</v>
+        <v>353.23</v>
       </c>
       <c r="Y21" s="17">
-        <v>530.38</v>
+        <v>353.23</v>
       </c>
       <c r="Z21" s="17">
-        <v>950.99</v>
+        <v>353.23</v>
       </c>
       <c r="AA21" s="17">
-        <v>950.99</v>
+        <v>353.23</v>
       </c>
       <c r="AB21" s="17">
-        <v>950.99</v>
+        <v>353.23</v>
       </c>
       <c r="AC21" s="17">
-        <v>950.99</v>
+        <v>353.23</v>
       </c>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
@@ -6979,91 +12486,91 @@
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="13">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="C22" s="13">
         <f>++'Completion Factors'!J16</f>
-        <v>0.46472923215025469</v>
+        <v>0.94392187582049802</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>1116.3615351464455</v>
+        <v>15.13759391211984</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="2"/>
-        <v>1116.3615351464455</v>
+        <v>15.13759391211984</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
         <f t="shared" si="3"/>
-        <v>2085.6015351464457</v>
+        <v>269.93759391211984</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="4"/>
-        <v>1116.3615351464457</v>
+        <v>15.137593912119826</v>
       </c>
       <c r="I22" s="13">
-        <v>4057.166666666667</v>
+        <v>3936.333333333333</v>
       </c>
       <c r="J22" s="13">
         <f t="shared" si="5"/>
-        <v>51.405369966227141</v>
+        <v>6.8575898190901823</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="6"/>
-        <v>23.889578112804504</v>
+        <v>6.4730290456431545</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="7"/>
-        <v>27.515791853422638</v>
+        <v>0.38456077344702777</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="9"/>
-        <v>51.476101551392262</v>
+        <v>28.189659116904192</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="10"/>
-        <v>7.1381592435735541</v>
+        <v>0.61961809955764047</v>
       </c>
       <c r="O22" s="18">
         <f t="shared" si="11"/>
-        <v>0.91265190557278908</v>
+        <v>0.92024157412819008</v>
       </c>
       <c r="P22" s="13"/>
       <c r="R22" s="16">
         <f t="shared" si="8"/>
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="17">
-        <v>387.59</v>
+        <v>215.06</v>
       </c>
       <c r="U22" s="17">
-        <v>548.63</v>
+        <v>254.8</v>
       </c>
       <c r="V22" s="17">
-        <v>548.63</v>
+        <v>254.8</v>
       </c>
       <c r="W22" s="17">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="X22" s="17">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="Y22" s="17">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="Z22" s="17">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="AA22" s="17">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="AB22" s="17">
-        <v>969.24</v>
+        <v>254.8</v>
       </c>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
@@ -7085,88 +12592,88 @@
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="B23" s="13">
-        <v>2293.81</v>
+        <v>413.83</v>
       </c>
       <c r="C23" s="13">
         <f>++'Completion Factors'!J15</f>
-        <v>0.46324904927489369</v>
+        <v>0.94392187582049802</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>2657.7597951035505</v>
+        <v>24.585519971163865</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="2"/>
-        <v>2657.7597951035505</v>
+        <v>24.585519971163865</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13">
         <f t="shared" si="3"/>
-        <v>4951.5697951035509</v>
+        <v>438.41551997116386</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
-        <v>2657.7597951035509</v>
+        <v>24.585519971163876</v>
       </c>
       <c r="I23" s="13">
-        <v>4056.085</v>
+        <v>3931.2216666666668</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="5"/>
-        <v>122.07756482183068</v>
+        <v>11.152144476831346</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="6"/>
-        <v>56.552315841507259</v>
+        <v>10.52675313399185</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="7"/>
-        <v>65.525248980323425</v>
+        <v>0.62539134283949593</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="9"/>
-        <v>60.243277729784218</v>
+        <v>26.294542282685455</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="10"/>
-        <v>7.7747671164585066</v>
+        <v>0.32747701952147257</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="11"/>
-        <v>0.91639605132553836</v>
+        <v>0.92013394360060041</v>
       </c>
       <c r="P23" s="13"/>
       <c r="R23" s="16">
         <f t="shared" si="8"/>
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17">
-        <v>1404.76</v>
+        <v>345.05</v>
       </c>
       <c r="U23" s="17">
-        <v>1806.35</v>
+        <v>345.05</v>
       </c>
       <c r="V23" s="17">
-        <v>2246.6999999999998</v>
+        <v>360.36</v>
       </c>
       <c r="W23" s="17">
-        <v>2246.6999999999998</v>
+        <v>393.11</v>
       </c>
       <c r="X23" s="17">
-        <v>2248.5100000000002</v>
+        <v>393.11</v>
       </c>
       <c r="Y23" s="17">
-        <v>2248.5100000000002</v>
+        <v>393.11</v>
       </c>
       <c r="Z23" s="17">
-        <v>2293.81</v>
+        <v>413.83</v>
       </c>
       <c r="AA23" s="17">
-        <v>2293.81</v>
+        <v>413.83</v>
       </c>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
@@ -7189,87 +12696,87 @@
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="B24" s="13">
-        <v>837.56999999999994</v>
+        <v>710.17</v>
       </c>
       <c r="C24" s="13">
         <f>++'Completion Factors'!J14</f>
-        <v>0.42065321191398253</v>
+        <v>0.92656255408793886</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>1153.547567340175</v>
+        <v>56.286616303747842</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="2"/>
-        <v>1153.547567340175</v>
+        <v>56.286616303747842</v>
       </c>
       <c r="F24" s="19">
         <v>0</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="3"/>
-        <v>1991.1175673401749</v>
+        <v>766.45661630374775</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="4"/>
-        <v>1153.547567340175</v>
+        <v>56.286616303747792</v>
       </c>
       <c r="I24" s="13">
-        <v>4047.085</v>
+        <v>3900.3416666666672</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" si="5"/>
-        <v>49.198807718152075</v>
+        <v>19.651012188344549</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="6"/>
-        <v>20.695636488979101</v>
+        <v>18.207892043645746</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="7"/>
-        <v>28.503171229172974</v>
+        <v>1.4431201446988027</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="9"/>
-        <v>62.976474233052485</v>
+        <v>23.677352651131642</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="10"/>
-        <v>2.6265338456510028</v>
+        <v>0.39310148696615393</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="11"/>
-        <v>0.92111545110076709</v>
+        <v>0.92124878899857621</v>
       </c>
       <c r="P24" s="13"/>
       <c r="R24" s="16">
         <f t="shared" si="8"/>
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17">
-        <v>145.65</v>
+        <v>8.75</v>
       </c>
       <c r="U24" s="17">
-        <v>672.31</v>
+        <v>69.89</v>
       </c>
       <c r="V24" s="17">
-        <v>781.62999999999988</v>
+        <v>89.08</v>
       </c>
       <c r="W24" s="17">
-        <v>837.56999999999994</v>
+        <v>89.08</v>
       </c>
       <c r="X24" s="17">
-        <v>837.56999999999994</v>
+        <v>114.88</v>
       </c>
       <c r="Y24" s="17">
-        <v>837.56999999999994</v>
+        <v>710.17</v>
       </c>
       <c r="Z24" s="17">
-        <v>837.56999999999994</v>
+        <v>710.17</v>
       </c>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
@@ -7293,84 +12800,78 @@
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45352</v>
       </c>
       <c r="B25" s="13">
-        <v>671.17000000000007</v>
+        <v>2353.38</v>
       </c>
       <c r="C25" s="13">
         <f>++'Completion Factors'!J13</f>
-        <v>0.36432817621926239</v>
+        <v>0.90052786021404407</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>1171.0427186673371</v>
+        <v>259.95391666597789</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="2"/>
-        <v>1171.0427186673371</v>
+        <v>259.95391666597789</v>
       </c>
       <c r="F25" s="19">
         <v>0</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="3"/>
-        <v>1842.2127186673372</v>
+        <v>2613.333916665978</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>1171.0427186673371</v>
+        <v>259.95391666597789</v>
       </c>
       <c r="I25" s="13">
-        <v>4013.103333333333</v>
+        <v>3892.4783333333339</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" si="5"/>
-        <v>45.904941030690402</v>
+        <v>67.138046582986192</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="6"/>
-        <v>16.724463445164218</v>
+        <v>60.459681428327357</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="7"/>
-        <v>29.180477585526184</v>
+        <v>6.6783651546588345</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="9"/>
-        <v>64.941557905713125</v>
+        <v>23.664143108478488</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="10"/>
-        <v>1.8478734610424297</v>
+        <v>1.0401144386878296</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="11"/>
-        <v>0.91750795435060095</v>
+        <v>0.93691184434861119</v>
       </c>
       <c r="P25" s="13"/>
       <c r="R25" s="16">
         <f t="shared" si="8"/>
-        <v>45170</v>
+        <v>45352</v>
       </c>
       <c r="S25" s="17"/>
-      <c r="T25" s="17">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="U25" s="17">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="V25" s="17">
-        <v>671.17000000000007</v>
-      </c>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
       <c r="W25" s="17">
-        <v>671.17000000000007</v>
+        <v>26.23</v>
       </c>
       <c r="X25" s="17">
-        <v>671.17000000000007</v>
+        <v>2353.38</v>
       </c>
       <c r="Y25" s="17">
-        <v>671.17000000000007</v>
+        <v>2353.38</v>
       </c>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
@@ -7395,81 +12896,79 @@
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="B26" s="13">
-        <v>170.46</v>
+        <v>239.62</v>
       </c>
       <c r="C26" s="13">
         <f>++'Completion Factors'!J12</f>
-        <v>0.36373652928952072</v>
+        <v>0.81231373410179697</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>298.17591163899903</v>
+        <v>55.364548383828591</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="2"/>
-        <v>298.17591163899903</v>
+        <v>55.364548383828591</v>
       </c>
       <c r="F26" s="19">
         <v>0</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="3"/>
-        <v>468.635911638999</v>
+        <v>294.98454838382861</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="4"/>
-        <v>298.17591163899897</v>
+        <v>55.364548383828605</v>
       </c>
       <c r="I26" s="13">
-        <v>3974.7616666666672</v>
+        <v>3878.1166666666659</v>
       </c>
       <c r="J26" s="13">
         <f t="shared" si="5"/>
-        <v>11.790289605766693</v>
+        <v>7.6063866494603145</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="6"/>
-        <v>4.2885590205198882</v>
+        <v>6.1787723422451633</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="7"/>
-        <v>7.501730585246805</v>
+        <v>1.4276143072151513</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="9"/>
-        <v>60.57174767713299</v>
+        <v>22.340066211606839</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="10"/>
-        <v>0.17807343459574657</v>
+        <v>0.31844259051564872</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="11"/>
-        <v>0.90850414679869307</v>
+        <v>0.94035580331361568</v>
       </c>
       <c r="P26" s="13"/>
       <c r="R26" s="16">
         <f t="shared" si="8"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="S26" s="17"/>
-      <c r="T26" s="17">
-        <v>74.08</v>
-      </c>
+      <c r="T26" s="17"/>
       <c r="U26" s="17">
-        <v>169.63</v>
+        <v>41.26</v>
       </c>
       <c r="V26" s="17">
-        <v>170.46</v>
+        <v>159.16</v>
       </c>
       <c r="W26" s="17">
-        <v>170.46</v>
+        <v>202.28</v>
       </c>
       <c r="X26" s="17">
-        <v>170.46</v>
+        <v>239.62</v>
       </c>
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
@@ -7495,76 +12994,76 @@
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="B27" s="13">
-        <v>353.23</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="C27" s="13">
         <f>++'Completion Factors'!J11</f>
-        <v>0.36369755543984472</v>
+        <v>0.39639577391071401</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>617.9890657229314</v>
+        <v>482.8428470929228</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="2"/>
-        <v>617.9890657229314</v>
+        <v>482.8428470929228</v>
       </c>
       <c r="F27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="3"/>
-        <v>971.21906572293142</v>
+        <v>799.93284709292277</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="4"/>
-        <v>617.9890657229314</v>
+        <v>482.8428470929228</v>
       </c>
       <c r="I27" s="13">
-        <v>3943.9416666666662</v>
+        <v>3863.5216666666661</v>
       </c>
       <c r="J27" s="13">
         <f t="shared" si="5"/>
-        <v>24.625594083489187</v>
+        <v>20.704758924856282</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="6"/>
-        <v>8.9562683694189218</v>
+        <v>8.2072789376531681</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="7"/>
-        <v>15.669325714070265</v>
+        <v>12.497479987203114</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="9"/>
-        <v>46.658827733554112</v>
+        <v>22.129923118198111</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="10"/>
-        <v>0.13199295291930874</v>
+        <v>0.89110576323660795</v>
       </c>
       <c r="O27" s="18">
         <f t="shared" si="11"/>
-        <v>0.9144534394337599</v>
+        <v>0.94394855853295234</v>
       </c>
       <c r="P27" s="13"/>
       <c r="R27" s="16">
         <f t="shared" si="8"/>
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
       <c r="U27" s="17">
-        <v>353.23</v>
+        <v>18.61</v>
       </c>
       <c r="V27" s="17">
-        <v>353.23</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="W27" s="17">
-        <v>353.23</v>
+        <v>317.08999999999997</v>
       </c>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
@@ -7591,75 +13090,71 @@
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45444</v>
       </c>
       <c r="B28" s="13">
-        <v>254.8</v>
+        <v>53.099999999999987</v>
       </c>
       <c r="C28" s="13">
         <f>++'Completion Factors'!J10</f>
-        <v>0.30516925464170602</v>
+        <v>0.36903292310571439</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>580.14649649145122</v>
+        <v>90.78960083322643</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="2"/>
-        <v>580.14649649145122</v>
+        <v>90.78960083322643</v>
       </c>
       <c r="F28" s="19">
         <v>0</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="3"/>
-        <v>834.94649649145117</v>
+        <v>143.88960083322641</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="4"/>
-        <v>580.14649649145122</v>
+        <v>90.789600833226416</v>
       </c>
       <c r="I28" s="13">
-        <v>3936.333333333333</v>
+        <v>3710.6816666666668</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="5"/>
-        <v>21.211275209368733</v>
+        <v>3.8777134165346907</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="6"/>
-        <v>6.4730290456431545</v>
+        <v>1.4310039170700439</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="7"/>
-        <v>14.738246163725577</v>
+        <v>2.4467094994646468</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="9"/>
-        <v>47.723559583036526</v>
+        <v>20.541989910501677</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="10"/>
-        <v>1.9165465391114416</v>
+        <v>0.16231820412334061</v>
       </c>
       <c r="O28" s="18">
         <f t="shared" si="11"/>
-        <v>0.92024157412819008</v>
+        <v>0.91459926878363385</v>
       </c>
       <c r="P28" s="20"/>
       <c r="R28" s="16">
         <f t="shared" si="8"/>
-        <v>45261</v>
+        <v>45444</v>
       </c>
       <c r="S28" s="17"/>
-      <c r="T28" s="17">
-        <v>215.06</v>
-      </c>
-      <c r="U28" s="17">
-        <v>254.8</v>
-      </c>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
       <c r="V28" s="17">
-        <v>254.8</v>
+        <v>53.099999999999987</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
@@ -7687,73 +13182,67 @@
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
-        <v>45292</v>
-      </c>
-      <c r="B29" s="13">
-        <v>345.05</v>
-      </c>
+        <v>45474</v>
+      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="13">
         <f>++'Completion Factors'!J9</f>
-        <v>9.2605500930903611E-2</v>
+        <v>0.20872546170420611</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>3380.9705552740825</v>
+        <v>0</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="2"/>
-        <v>3380.9705552740825</v>
+        <v>0</v>
       </c>
       <c r="F29" s="13">
         <f>ROUND(+I29*J29/100,0)-D29-B29</f>
-        <v>-1367.0205552740824</v>
+        <v>2207</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="3"/>
-        <v>2359</v>
+        <v>2207</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="4"/>
-        <v>2013.95</v>
+        <v>2207</v>
       </c>
       <c r="I29" s="13">
-        <v>3931.2216666666668</v>
+        <v>3677.626666666667</v>
       </c>
       <c r="J29" s="19">
         <v>60</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="6"/>
-        <v>8.7771697771642661</v>
+        <v>0</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="7"/>
-        <v>51.222830222835732</v>
+        <v>60</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="9"/>
-        <v>49.920352375485436</v>
+        <v>20.522602953345501</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="10"/>
-        <v>1.7618693168931316</v>
+        <v>1.0609645088302868</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" si="11"/>
-        <v>0.92013394360060041</v>
+        <v>0.90669368779664794</v>
       </c>
       <c r="P29" s="13"/>
       <c r="R29" s="16">
         <f t="shared" si="8"/>
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="S29" s="17"/>
-      <c r="T29" s="17">
-        <v>345.05</v>
-      </c>
-      <c r="U29" s="17">
-        <v>345.05</v>
-      </c>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
@@ -7781,70 +13270,66 @@
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
-        <v>45323</v>
-      </c>
-      <c r="B30" s="13">
-        <v>8.75</v>
-      </c>
+        <v>45505</v>
+      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="13">
         <f>++'Completion Factors'!J8</f>
-        <v>4.9018671827134902E-2</v>
+        <v>3.3439439671413773E-2</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>169.75340847375483</v>
+        <v>0</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="2"/>
-        <v>169.75340847375483</v>
+        <v>0</v>
       </c>
       <c r="F30" s="13">
         <f>ROUND(+I30*J30/100,0)-D30-B30</f>
-        <v>2161.4965915262451</v>
+        <v>2205</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="3"/>
-        <v>2340</v>
+        <v>2205</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="4"/>
-        <v>2331.25</v>
+        <v>2205</v>
       </c>
       <c r="I30" s="13">
-        <v>3900.3416666666672</v>
+        <v>3674.496666666666</v>
       </c>
       <c r="J30" s="19">
         <v>60</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="6"/>
-        <v>0.22433932070053689</v>
+        <v>0</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="7"/>
-        <v>59.775660679299463</v>
+        <v>60</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="9"/>
-        <v>50.728952268785491</v>
+        <v>23.634671609849043</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="10"/>
-        <v>1.2002480580597608</v>
+        <v>2.8991618610981762</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="11"/>
-        <v>0.92124878899857621</v>
+        <v>0.90793661775491885</v>
       </c>
       <c r="P30" s="13"/>
       <c r="R30" s="16">
         <f t="shared" si="8"/>
-        <v>45323</v>
+        <v>45505</v>
       </c>
       <c r="S30" s="17"/>
-      <c r="T30" s="17">
-        <v>8.75</v>
-      </c>
+      <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
@@ -7873,12 +13358,12 @@
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <f>DATE(YEAR(H4),MONTH(H4),1)</f>
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13">
         <f>+'Completion Factors'!J7</f>
-        <v>4.9018671827134902E-2</v>
+        <v>3.3439439671413773E-2</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
@@ -7890,18 +13375,18 @@
       </c>
       <c r="F31" s="13">
         <f>ROUND(+I31*J31/100,0)-D31-B31</f>
-        <v>2335</v>
+        <v>2191</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="3"/>
-        <v>2335</v>
+        <v>2191</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="4"/>
-        <v>2335</v>
+        <v>2191</v>
       </c>
       <c r="I31" s="13">
-        <v>3892.4783333333339</v>
+        <v>3651.1766666666672</v>
       </c>
       <c r="J31" s="19">
         <v>60</v>
@@ -7916,20 +13401,20 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" si="9"/>
-        <v>50.197925794332789</v>
+        <v>27.094761191350802</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="10"/>
-        <v>0.91554536811815324</v>
+        <v>3.5218190896425416</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="11"/>
-        <v>0.93691184434861119</v>
+        <v>0.90981376839702632</v>
       </c>
       <c r="P31" s="13"/>
       <c r="R31" s="16">
         <f t="shared" si="8"/>
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -7960,10 +13445,10 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="H32" s="21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -7999,12 +13484,12 @@
       <c r="G33" s="13"/>
       <c r="H33" s="14">
         <f>SUM(H8:H31)</f>
-        <v>16280.523243395292</v>
+        <v>7619.8399568031218</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="22">
         <f>SUM(G20:G31)/SUM(I20:I31)</f>
-        <v>0.50197925794332787</v>
+        <v>0.27094761191350802</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -8028,13 +13513,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.35">
@@ -8043,16 +13528,16 @@
       <c r="F36" s="23"/>
       <c r="H36" s="25">
         <f>H33*(1+H35)</f>
-        <v>17501.562486649938</v>
+        <v>8191.3279535633555</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="e">
         <f>(H36-I36)/I36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="27" t="e">
         <f>(VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)-VLOOKUP(DATE(YEAR(H4),MONTH(H4)-3,DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE))/VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)</f>
-        <v>-9.9892366423526058E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.35">

--- a/Process Results/Unified_IBNP_ASL.xlsx
+++ b/Process Results/Unified_IBNP_ASL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1528702174316592</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3092188266931472</v>
+        <v>0.02148382082443052</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.483322504001708</v>
+        <v>0.3190430048767609</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.3771473153854846</v>
+        <v>0.04025681523296367</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1528702174316592</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3092188266931472</v>
+        <v>0.02148382082443052</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.483322504001708</v>
+        <v>0.3190430048767609</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3771473153854846</v>
+        <v>0.04025681523296367</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2841314438478619</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4880010500199293</v>
+        <v>0.02148382082443052</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.660962306702941</v>
+        <v>0.3756211758361668</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.561463162088343</v>
+        <v>0.04064304457202939</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5246254379740204</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6445120214446944</v>
+        <v>0.1708981070258065</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7200119948401691</v>
+        <v>0.5110909606110156</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.6801732775980485</v>
+        <v>0.2561462692916272</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5325582794391553</v>
+        <v>0.7981330215908274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.70652346108663</v>
+        <v>0.1899791135889329</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7721638505526724</v>
+        <v>0.5307898268355005</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7378867349766377</v>
+        <v>0.279809451125492</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5327960808719345</v>
+        <v>0.947363572498598</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7066867805160838</v>
+        <v>0.8318427673518702</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7722344999047998</v>
+        <v>0.9147925319200074</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7380080600177222</v>
+        <v>0.8713479586979457</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5327960808719345</v>
+        <v>0.9724026590270886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7066867805160838</v>
+        <v>0.9750167366784771</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8262067697610427</v>
+        <v>0.9841058416210431</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7617872774759459</v>
+        <v>0.9795402052651752</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6413660918091683</v>
+        <v>0.9724026590270886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8077295804508048</v>
+        <v>0.979646065981243</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8676941962310664</v>
+        <v>0.990863644703766</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8366388000883636</v>
+        <v>0.9852229260219553</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7056387001851939</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.856941746178837</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8881702784277418</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8722765972248675</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7056387001851939</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.856941746178837</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.890993062300435</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8736357293613772</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7616425909765419</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8803682343650984</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9083131211625011</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8941223837966528</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8830020067249392</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9110541818829477</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9315303048216349</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9211784706559442</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9252685341795857</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9391505410394004</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9527903431523089</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9459212745443646</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>1</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4839,31 +4839,31 @@
         <v/>
       </c>
       <c r="D38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v/>
+        <v>3.033282674772036</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>2.395711207976352</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>1.521425882549774</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>1</v>
@@ -4914,31 +4914,31 @@
         <v/>
       </c>
       <c r="D39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v/>
+        <v>1.249883364534551</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>1</v>
@@ -4986,13 +4986,13 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.100817137809187</v>
+        <v>1.269355300946957</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v>1.288221815509216</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
@@ -5061,25 +5061,25 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>12.81344380596018</v>
+        <v>1.037650450085972</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.006257626482275</v>
+        <v>1.292126617442796</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>1.064554455445545</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>3.280194438398474</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v>1.745128259637188</v>
       </c>
       <c r="J41" s="4" t="n">
         <v>1</v>
@@ -5136,10 +5136,10 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v/>
+        <v>1.099665637860082</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1</v>
+        <v>1.0337582349043</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1</v>
+        <v>1.793035182322109</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
@@ -5211,13 +5211,13 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>3.599067840497152</v>
+        <v>1.415490595732604</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v>1.76665512276033</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
@@ -5286,28 +5286,28 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>8.760114572144648</v>
+        <v>1.28587801474985</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.030490047819512</v>
+        <v>1.243778891134055</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.397909808432158</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.000805626029287</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.020146674909162</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.066164474897505</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.09507018827756</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>1</v>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>1.005440729615792</v>
       </c>
       <c r="R44" s="4" t="n">
         <v>1</v>
@@ -5361,19 +5361,19 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>2.411016949152542</v>
+        <v>4.615928595949193</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v>1.162603560857342</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1</v>
+        <v>1.071568389135525</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>23.87016695957821</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
@@ -5436,46 +5436,46 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.001985472154964</v>
+        <v>18.04220430107527</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5511,10 +5511,10 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2.575291560783902</v>
+        <v>2.289821814254859</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1</v>
+        <v>1.004893002417025</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.048451651833735</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
@@ -5544,10 +5544,10 @@
         <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.118607922950309</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5586,10 +5586,10 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.372942884801549</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>8.344967389388332</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5661,13 +5661,13 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v/>
+        <v>1.184785641216405</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>3.033282674772036</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>1</v>
@@ -5676,19 +5676,19 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>2.395711207976352</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.521425882549774</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5736,13 +5736,13 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1</v>
+        <v>1.044370381104188</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.090881340881341</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>1</v>
@@ -5751,19 +5751,19 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>1.052707893464933</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.249883364534551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5811,25 +5811,25 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.269355300946957</v>
+        <v>7.987428571428572</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>1.274574331091715</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.288221815509216</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1</v>
+        <v>1.2896273013022</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v>6.181841922005571</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.118154808003717</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
@@ -5886,16 +5886,16 @@
         <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.037650450085972</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.292126617442796</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.064554455445545</v>
+        <v/>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>89.72093023255815</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.745128259637188</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5961,22 +5961,22 @@
         <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.099665637860082</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.0337582349043</v>
+        <v>3.857489093553078</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>1.270922342297059</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.184595610045482</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>1.077831566647191</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.793035182322109</v>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6036,16 +6036,16 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.415490595732604</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v>17.03868887694788</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.76665512276033</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>1.243369390393894</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
@@ -6111,16 +6111,16 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.28587801474985</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.243778891134055</v>
+        <v/>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.351224105461394</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.000805626029287</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>4.615928595949193</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.162603560857343</v>
+        <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.071568389135525</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6261,13 +6261,13 @@
         <v/>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>18.04220430107527</v>
+        <v/>
       </c>
       <c r="E57" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6336,10 +6336,10 @@
         <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2.289821814254859</v>
+        <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.004893002417025</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.3148005627751614</v>
+        <v>0.3731778762978779</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.483322504001708</v>
+        <v>0.3190430048767609</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.3092188266931472</v>
+        <v>0.02148382082443052</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1528702174316592</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02560810361105564</v>
+        <v>0.01207589595826575</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.02915022605615373</v>
+        <v>0.005945746482533147</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.02656294073173574</v>
+        <v>0.002695076595365063</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.01224788710884527</v>
+        <v>0.7365019230088642</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.3771473153854846</v>
+        <v>0.04025681523296367</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3148005627751614</v>
+        <v>0.3731778762978779</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.483322504001708</v>
+        <v>0.3190430048767609</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.3092188266931472</v>
+        <v>0.02148382082443052</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.1528702174316592</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.02560810361105564</v>
+        <v>0.01207589595826575</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.02915022605615373</v>
+        <v>0.005945746482533147</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.02656294073173574</v>
+        <v>0.002695076595365063</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.01224788710884527</v>
+        <v>0.7365019230088642</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.3771473153854846</v>
+        <v>0.04025681523296367</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.99594500631705</v>
+        <v>1.349373165344119</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.367538861175405</v>
+        <v>1.177337130401153</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.578173797626483</v>
+        <v/>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.858644859813084</v>
+        <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>3.084902818395142</v>
+        <v>2.198727692929499</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.668198934397724</v>
+        <v>3.390738070881659</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.121423804137302</v>
+        <v/>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.64491090712743</v>
+        <v/>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.472856329400944</v>
+        <v>0.5886685652005765</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6283246112568805</v>
+        <v>0.5035562121764636</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.660962306702941</v>
+        <v>0.3756211758361668</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4880010500199293</v>
+        <v>0.02148382082443052</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.2841314438478619</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.07899851100350037</v>
+        <v>0.02655160686037431</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.04862837604432843</v>
+        <v>0.02016046895813585</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.05635125477619251</v>
+        <v>0.002695076595365063</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.02014668309460503</v>
+        <v>0.7365019230088642</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.561463162088343</v>
+        <v>0.04064304457202939</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.066311833959299</v>
+        <v>1.193784211924527</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.089338964625357</v>
+        <v>1.360655345038204</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.320718513655603</v>
+        <v>7.954735259729414</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.846418090406534</v>
+        <v/>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.957423191531005</v>
+        <v>3.312155455657978</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>2.512692291052695</v>
+        <v>3.745716526444841</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>3.914539665064666</v>
+        <v>10.44808898525048</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>6.736566954783211</v>
+        <v/>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.205028739140479</v>
+        <v>4.657695302383809</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6699899685510877</v>
+        <v>0.6011374559127792</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7200119948401691</v>
+        <v>0.5110909606110156</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.6445120214446944</v>
+        <v>0.1708981070258065</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.5246254379740204</v>
+        <v>0.6424954133446027</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.1546335175346689</v>
+        <v>0.08794304951907457</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.1221881456129956</v>
+        <v>0.07551540175736766</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.2205892219975703</v>
+        <v>0.02815840009044008</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.1357194795836058</v>
+        <v>0.7365019230088642</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.6801732775980485</v>
+        <v>0.2561462692916272</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.072568666344345</v>
+        <v>1.133939946728844</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.07243192625434</v>
+        <v>1.038542779549328</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.096214558578651</v>
+        <v>1.111651362880486</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.015120962292202</v>
+        <v>1.24223925185089</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.201232903669712</v>
+        <v>1.218739458125691</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.268690204801888</v>
+        <v>1.071302778863979</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.1504629945569</v>
+        <v>1.155536611939613</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.023856129711842</v>
+        <v>1.175612052730697</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.084323242416496</v>
+        <v>1.075097071214907</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7186102470329301</v>
+        <v>0.6816537747344494</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.7721638505526724</v>
+        <v>0.5307898268355005</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.70652346108663</v>
+        <v>0.1899791135889329</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.5325582794391553</v>
+        <v>0.7981330215908274</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.1857508692728316</v>
+        <v>0.1071796645167978</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.1550189034821143</v>
+        <v>0.08089985974969781</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.2537797369063015</v>
+        <v>0.03253806223814722</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.138957221092976</v>
+        <v>0.8658405375485564</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7378867349766377</v>
+        <v>0.279809451125492</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.000079852894204</v>
+        <v>1.197609893979359</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.000091495285718</v>
+        <v>1.723455284314473</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.000231159244454</v>
+        <v>4.378601161134845</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.000446526590535</v>
+        <v>1.186974535410559</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.000047389766429</v>
+        <v>5.707333061069948</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.000067135502441</v>
+        <v>8.453210211191644</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.000134271004881</v>
+        <v>15.90642042238329</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.000268542009763</v>
+        <v>1.081123130131298</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.000161327265086</v>
+        <v>3.051028222724659</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.7186676301409604</v>
+        <v>0.816355304890354</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.7722344999047998</v>
+        <v>0.9147925319200074</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.7066867805160838</v>
+        <v>0.8318427673518702</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.5327960808719345</v>
+        <v>0.947363572498598</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.1857596719631403</v>
+        <v>0.6117100427711055</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.1550293107540873</v>
+        <v>0.6838635205201173</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.2538138121665944</v>
+        <v>0.5175640976896434</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.1389945369443993</v>
+        <v>0.9360802321490612</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7380080600177222</v>
+        <v>0.8713479586979457</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.16368847487875</v>
+        <v>1.041090792754999</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.069891036806691</v>
+        <v>1.075769431081338</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1</v>
+        <v>1.172116624614522</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>1.026430282159205</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>2.574925815613151</v>
+        <v>1.292204082702931</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>2.909884884284329</v>
+        <v>1.438306124054397</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1</v>
+        <v>1.876612248108794</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>1.025943855549064</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.034945518403346</v>
+        <v>1.12394302784793</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8363052384634597</v>
+        <v>0.8498999915380473</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8262067697610427</v>
+        <v>0.9841058416210431</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.7066867805160838</v>
+        <v>0.9750167366784771</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.5327960808719345</v>
+        <v>0.9724026590270886</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.4783173748377205</v>
+        <v>0.7904542146992074</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.4511174479843366</v>
+        <v>0.9836050895814844</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.2538138121665944</v>
+        <v>0.9712671249057611</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.1389945369443993</v>
+        <v>0.9603657624742703</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.7617872774759459</v>
+        <v>0.9795402052651752</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.041803499821926</v>
+        <v>1.06741284936948</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.050214338575346</v>
+        <v>1.0068669474328</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.142981024579137</v>
+        <v>1.004747948551669</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.203774041955331</v>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.136796649393654</v>
+        <v>1.13303535051015</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.182395532524872</v>
+        <v>1.006071214031175</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.364791065049744</v>
+        <v>1.008784648910822</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.264345060774036</v>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.096597681577241</v>
+        <v>1.005807447992235</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.871265724350643</v>
+        <v>0.9071941716467239</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8676941962310664</v>
+        <v>0.990863644703766</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.8077295804508048</v>
+        <v>0.979646065981243</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.6413660918091683</v>
+        <v>0.9724026590270886</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.5437495890622889</v>
+        <v>0.8956125682139421</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.5333992551407009</v>
+        <v>0.9895767666024863</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.346402823031182</v>
+        <v>0.9797993655966819</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.1757370562602256</v>
+        <v>0.9603657624742703</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8366388000883636</v>
+        <v>0.9852229260219553</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.019969911572505</v>
+        <v>1.031273012181425</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.023598270318755</v>
+        <v>1.008196801381666</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.060926536453656</v>
+        <v>1.019317721379107</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.100212046125989</v>
+        <v>1.0252602488997</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.054086182302313</v>
+        <v>1.053955191727557</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.067607727877891</v>
+        <v>1.00984623400031</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.124188043272865</v>
+        <v>1.01969246800062</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.248376086545729</v>
+        <v>1.039384936001239</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.042262403386205</v>
+        <v>1.013757261380386</v>
       </c>
     </row>
     <row r="10">
@@ -7215,41 +7215,41 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8886648238220798</v>
+        <v>0.9355648660275493</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8881702784277418</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.856941746178837</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.7056387001851939</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.5731589284631196</v>
+        <v>0.9439355160455348</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.5694611668325231</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.3894219118076209</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.219385938555207</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8722765972248675</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.003118186467987</v>
+        <v>1</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.003178201231514</v>
+        <v>1</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
@@ -7258,10 +7258,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.006790727734111</v>
+        <v>1</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.007922515689797</v>
+        <v>1</v>
       </c>
       <c r="T10" s="22" t="n">
         <v>1</v>
@@ -7270,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.001589100615757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8914358464502982</v>
+        <v>0.9355648660275493</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.890993062300435</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.856941746178837</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.7056387001851939</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.5770510946946875</v>
+        <v>0.9439355160455348</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.5739727318614837</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.3894219118076209</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.219385938555207</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8736357293613772</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.019232902066879</v>
+        <v>1.030168341814236</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.019439050195686</v>
+        <v>1</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.027337317023849</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.079366240508988</v>
+        <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.019221797271888</v>
+        <v>1.017848811752468</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.020823613711213</v>
+        <v>1</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.041647227422425</v>
+        <v>1</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.08329445484485</v>
+        <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.023388183609767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9085807447839821</v>
+        <v>0.9637893066952582</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9083131211625011</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8803682343650984</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.7616425909765419</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.5881430538524302</v>
+        <v>0.9607836433779003</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.5859249183105365</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.4056402547319485</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.2376595707077889</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8941223837966528</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.025258690732115</v>
+        <v>1.036518614863182</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.025560770970059</v>
+        <v>1</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.034855809557894</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.159339061636241</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.043452156879148</v>
+        <v>1.04010968327306</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.04740235295907</v>
+        <v>1</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.086904313758296</v>
+        <v>1</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.173808627516592</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.030208290263976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9315303048216349</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9315303048216349</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9110541818829477</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.8830020067249392</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.613699138095807</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.613699138095807</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.4408921427021688</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.278966854508692</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9211784706559442</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.022822701763572</v>
+        <v>1</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.022822701763572</v>
+        <v>1</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.03083939431394</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.047866853226544</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.612080615782361</v>
+        <v>1</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.612080615782361</v>
+        <v>1</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>2.224161231564722</v>
+        <v>1</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>3.448322463129444</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.026831048038757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9527903431523089</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9527903431523089</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9391505410394004</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9252685341795857</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9893324844465927</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9893324844465927</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9806152110996649</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.961967670870886</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9459212745443646</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.049548840610095</v>
+        <v>1</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.049548840610095</v>
+        <v>1</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.064792018213879</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.080767326521783</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.010782538450028</v>
+        <v>1</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.010782538450028</v>
+        <v>1</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.019767987158385</v>
+        <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.03953597431677</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.057170429411987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7535,31 +7535,31 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>1</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>1</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>1</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>1</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>1</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>1</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>1</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7599,31 +7599,31 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>1</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>1</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>1</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>1</v>
+        <v>0.9989855571957159</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9985705957340072</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9969657922248426</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>1</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>1</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.999094033250722</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9981897065671005</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>1</v>
+        <v>0.9987780333639418</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1</v>
+        <v>1.001015472943505</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1</v>
+        <v>1.001015472943505</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.001431450387283</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1</v>
+        <v>1.003043442211178</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1</v>
+        <v>1.000680091201974</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1</v>
+        <v>1.000680091201974</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.000906788269299</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1</v>
+        <v>1.001813576538597</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1</v>
+        <v>1.001223461665394</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>4507.138333333333</v>
+        <v>4272.445</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8611,70 +8611,70 @@
         <v/>
       </c>
       <c r="U8" s="22" t="n">
-        <v/>
+        <v>131.6</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v/>
+        <v>131.6</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v/>
+        <v>399.1799999999999</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v/>
+        <v>399.1799999999999</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>233.31</v>
+        <v>399.1799999999999</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>233.31</v>
+        <v>956.3199999999999</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>233.31</v>
+        <v>956.3199999999999</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>233.31</v>
+        <v>956.3199999999999</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>233.31</v>
+        <v>956.3199999999999</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>233.31</v>
+        <v>1454.97</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4507.138333333333</v>
+        <v>4233.755</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8738,67 +8738,67 @@
         <v/>
       </c>
       <c r="U9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v/>
+        <v>1693.31</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v/>
+        <v>2116.44</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>133.33</v>
+        <v>2116.44</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>4466.179999999999</v>
+        <v>4154.583333333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8862,67 +8862,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>181.12</v>
+        <v>1639.99</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>199.38</v>
+        <v>2081.73</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>199.38</v>
+        <v>2081.73</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>199.38</v>
+        <v>2681.73</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>4457.45</v>
+        <v>4124.095</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>74.83</v>
+        <v>395.48</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>958.83</v>
+        <v>410.37</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>964.83</v>
+        <v>530.25</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>964.83</v>
+        <v>564.48</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>964.83</v>
+        <v>564.48</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>3164.83</v>
+        <v>564.48</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>3164.83</v>
+        <v>564.48</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>3164.83</v>
+        <v>985.09</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>4445.47</v>
+        <v>4092.936666666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v/>
+        <v>466.56</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>320.14</v>
+        <v>513.0599999999999</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>320.14</v>
+        <v>530.38</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>320.14</v>
+        <v>530.38</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>320.14</v>
+        <v>530.38</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>320.14</v>
+        <v>530.38</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>320.14</v>
+        <v>950.99</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>4426.126666666666</v>
+        <v>4057.166666666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>193.1</v>
+        <v>387.59</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>694.98</v>
+        <v>548.63</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>694.98</v>
+        <v>548.63</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>694.98</v>
+        <v>969.24</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>823.0000000000001</v>
+        <v>2306.29</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4393.678333333333</v>
+        <v>4056.085</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>55.86</v>
+        <v>1404.76</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>489.34</v>
+        <v>1806.35</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>504.26</v>
+        <v>2246.7</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>704.9100000000001</v>
+        <v>2246.7</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>704.9100000000001</v>
+        <v>2248.51</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>704.9100000000001</v>
+        <v>2248.51</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>704.9100000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>751.5500000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2293.81</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2306.29</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>823.0000000000001</v>
+        <v>2306.29</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>4373.916666666667</v>
+        <v>4047.085</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9497,52 +9497,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>18.88</v>
+        <v>145.65</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>45.52</v>
+        <v>672.3099999999999</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>45.52</v>
+        <v>781.6299999999999</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>45.52</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>45.52</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>1086.57</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>4375.061666666666</v>
+        <v>4013.103333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9624,49 +9624,49 @@
         <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v/>
+        <v>37.2</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2891</v>
+        <v>37.2</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>2896.74</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>8046.460000000001</v>
+        <v>170.46</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>4312.895</v>
+        <v>3974.761666666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9751,46 +9751,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>2664.11</v>
+        <v>74.08</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>6860.860000000001</v>
+        <v>169.63</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>6860.860000000001</v>
+        <v>170.46</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>6860.860000000001</v>
+        <v>170.46</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>6860.860000000001</v>
+        <v>170.46</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>7193.280000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>8046.460000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>8046.460000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>473.41</v>
+        <v>353.23</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>4277.5</v>
+        <v>3943.941666666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>41.32</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>41.32</v>
+        <v>353.23</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>56.73</v>
+        <v>353.23</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>473.41</v>
+        <v>353.23</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>473.41</v>
+        <v>353.23</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1454.97</v>
+        <v>254.8</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>4272.445</v>
+        <v>3936.333333333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v/>
+        <v>215.06</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>131.6</v>
+        <v>254.8</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>131.6</v>
+        <v>254.8</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>399.1799999999999</v>
+        <v>254.8</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>399.1799999999999</v>
+        <v>254.8</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>399.1799999999999</v>
+        <v>254.8</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>254.8</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>254.8</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>254.8</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>254.8</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>1454.97</v>
+        <v>254.8</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>1454.97</v>
+        <v>254.8</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>2116.44</v>
+        <v>413.83</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>4233.755</v>
+        <v>3931.221666666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v/>
+        <v>345.05</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1693.31</v>
+        <v>345.05</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1693.31</v>
+        <v>360.36</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1693.31</v>
+        <v>393.11</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1693.31</v>
+        <v>393.11</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1693.31</v>
+        <v>393.11</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>1693.31</v>
+        <v>413.83</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>1693.31</v>
+        <v>413.83</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>1693.31</v>
+        <v>413.83</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>2116.44</v>
+        <v>413.83</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>2116.44</v>
+        <v>413.83</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>2681.73</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>4154.583333333333</v>
+        <v>3900.341666666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10280,34 +10280,34 @@
         <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1639.99</v>
+        <v>8.75</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>2081.73</v>
+        <v>69.89</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>2081.73</v>
+        <v>89.08</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>2681.73</v>
+        <v>89.08</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>2681.73</v>
+        <v>114.88</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>2681.73</v>
+        <v>710.17</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>2681.73</v>
+        <v>710.17</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>2681.73</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>2681.73</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>2681.73</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>985.09</v>
+        <v>2353.38</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>4124.095</v>
+        <v>3892.478333333334</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10416,31 +10416,31 @@
         <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>395.48</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>410.37</v>
+        <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>530.25</v>
+        <v/>
       </c>
       <c r="W22" s="22" t="n">
-        <v>564.48</v>
+        <v>26.23</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>564.48</v>
+        <v>2353.38</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>564.48</v>
+        <v>2353.38</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>564.48</v>
+        <v>2353.38</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>985.09</v>
+        <v>2353.38</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>985.09</v>
+        <v>2353.38</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>950.99</v>
+        <v>258.27</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>4092.936666666667</v>
+        <v>3878.116666666666</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10552,28 +10552,28 @@
         <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>466.56</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>513.0599999999999</v>
+        <v>41.26</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>530.38</v>
+        <v>159.16</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>530.38</v>
+        <v>202.28</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>530.38</v>
+        <v>239.62</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>530.38</v>
+        <v>258.27</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>950.99</v>
+        <v>258.27</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>950.99</v>
+        <v>258.27</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>969.24</v>
+        <v>394.26</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>4057.166666666667</v>
+        <v>3863.521666666666</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10690,25 +10690,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>387.59</v>
+        <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>548.63</v>
+        <v>18.61</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>548.63</v>
+        <v>317.09</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>969.24</v>
+        <v>317.09</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>969.24</v>
+        <v>394.26</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>969.24</v>
+        <v>394.26</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>969.24</v>
+        <v>394.26</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>2248.51</v>
+        <v>71.75</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>4056.085</v>
+        <v>3710.681666666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>1404.76</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>1806.35</v>
+        <v/>
       </c>
       <c r="V25" s="22" t="n">
-        <v>2246.7</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>2246.7</v>
+        <v>71.75</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>2248.51</v>
+        <v>71.75</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>2248.51</v>
+        <v>71.75</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>837.5700000000002</v>
+        <v>23.89</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>4047.085</v>
+        <v>3677.626666666667</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>145.65</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>672.3100000000001</v>
+        <v/>
       </c>
       <c r="V26" s="22" t="n">
-        <v>781.6300000000001</v>
+        <v>23.89</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>837.5700000000002</v>
+        <v>23.89</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>837.5700000000002</v>
+        <v>23.89</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>671.1700000000001</v>
+        <v/>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>4013.103333333333</v>
+        <v>3674.496666666666</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11104,16 +11104,16 @@
         <v/>
       </c>
       <c r="T27" s="22" t="n">
-        <v>37.2</v>
+        <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>37.2</v>
+        <v/>
       </c>
       <c r="V27" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v/>
       </c>
       <c r="W27" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>170.46</v>
+        <v>30.01</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>3974.761666666667</v>
+        <v>3651.176666666666</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11242,13 +11242,13 @@
         <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>74.08</v>
+        <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>169.63</v>
+        <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>170.46</v>
+        <v>30.01</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>353.23</v>
+        <v/>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>3943.941666666667</v>
+        <v>3634.736666666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>60</v>
@@ -11383,7 +11383,7 @@
         <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v>353.23</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>215.06</v>
+        <v/>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>3936.333333333333</v>
+        <v>3561.746666666666</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11518,7 +11518,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v>215.06</v>
+        <v/>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>3931.221666666667</v>
+        <v>3552.425</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>

--- a/Process Results/Unified_IBNP_ASL.xlsx
+++ b/Process Results/Unified_IBNP_ASL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.004993030456393979</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02148382082443052</v>
+        <v>0.01602094395431397</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3190430048767609</v>
+        <v>0.006646644468452611</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.04025681523296367</v>
+        <v>0.009395398974721077</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.004993030456393979</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02148382082443052</v>
+        <v>0.01602094395431397</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3190430048767609</v>
+        <v>0.006646644468452611</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04025681523296367</v>
+        <v>0.009395398974721077</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.004993030456393979</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02148382082443052</v>
+        <v>0.2781301367603952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3756211758361668</v>
+        <v>0.1153884652664718</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04064304457202939</v>
+        <v>0.1631079672464622</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.005666802576667762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1708981070258065</v>
+        <v>0.3136175604563849</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.5110909606110156</v>
+        <v>0.2476714654160478</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2561462692916272</v>
+        <v>0.2767704950500573</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7981330215908274</v>
+        <v>0.006211441096975763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1899791135889329</v>
+        <v>0.3415791723954557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5307898268355005</v>
+        <v>0.270808084716548</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.279809451125492</v>
+        <v>0.3021042661524831</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.947363572498598</v>
+        <v>0.01563063964283775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8318427673518702</v>
+        <v>0.8008759358157115</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9147925319200074</v>
+        <v>0.8049599698619578</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8713479586979457</v>
+        <v>0.8029127594893672</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9724026590270886</v>
+        <v>0.9975339066408517</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9750167366784771</v>
+        <v>0.9956273084030723</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9841058416210431</v>
+        <v>0.9907330654946853</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9795402052651752</v>
+        <v>0.9931741574252433</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9724026590270886</v>
+        <v>0.998107362778848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.979646065981243</v>
+        <v>0.9981601692829167</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.990863644703766</v>
+        <v>0.9935751948354667</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9852229260219553</v>
+        <v>0.9958624047540179</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4836,13 +4836,13 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v/>
+        <v>1.415490595732604</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>3.033282674772036</v>
+        <v>1.76665512276033</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
@@ -4851,19 +4851,19 @@
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>2.395711207976352</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.521425882549774</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>1</v>
@@ -4911,22 +4911,22 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v/>
+        <v>1.28587801474985</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v>1.243778891134055</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>1.000805626029287</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>1.020146674909162</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.249883364534551</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>1.005440729615792</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
@@ -4986,13 +4986,13 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.269355300946957</v>
+        <v>4.615928595949193</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1</v>
+        <v>1.162603560857342</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.288221815509216</v>
+        <v>1.071568389135525</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
@@ -5061,61 +5061,61 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.037650450085972</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.292126617442796</v>
+        <v>18.04220430107527</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.064554455445545</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.745128259637188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5136,10 +5136,10 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.099665637860082</v>
+        <v>2.289821814254859</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.0337582349043</v>
+        <v>1.004893002417025</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.793035182322109</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1</v>
@@ -5211,13 +5211,13 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.415490595732604</v>
+        <v/>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.76665512276033</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>1</v>
@@ -5286,22 +5286,22 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.28587801474985</v>
+        <v>1.184785641216405</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.243778891134055</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.000805626029287</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.020146674909162</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1.005440729615792</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
         <v>1</v>
@@ -5361,13 +5361,13 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>4.615928595949193</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.162603560857342</v>
+        <v>1.044370381104188</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.071568389135525</v>
+        <v>1.090881340881341</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>1</v>
@@ -5376,34 +5376,34 @@
         <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>1.052707893464933</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5436,46 +5436,46 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1</v>
+        <v>7.987428571428572</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>18.04220430107527</v>
+        <v>1.274574331091715</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.2896273013022</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>6.181841922005571</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.118154808003717</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5511,16 +5511,16 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2.289821814254859</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.004893002417025</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>89.72093023255815</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>1</v>
@@ -5589,16 +5589,16 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1</v>
+        <v>3.857489093553078</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1</v>
+        <v>1.270922342297059</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1</v>
+        <v>1.184595610045482</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1.077831566647191</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -5661,16 +5661,16 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.184785641216405</v>
+        <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v>17.03868887694788</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.243369390393894</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
@@ -5736,13 +5736,13 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.044370381104188</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.090881340881341</v>
+        <v>1.351224105461394</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>1</v>
@@ -5751,19 +5751,19 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.052707893464933</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5811,25 +5811,25 @@
         <v/>
       </c>
       <c r="C51" s="4" t="n">
-        <v>7.987428571428572</v>
+        <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.274574331091715</v>
+        <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.2896273013022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>6.181841922005571</v>
+        <v>2.097948932607786</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>2.012370311252993</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.118154808003717</v>
+        <v>1.473527662105889</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
@@ -5895,7 +5895,7 @@
         <v/>
       </c>
       <c r="F52" s="4" t="n">
-        <v>89.72093023255815</v>
+        <v/>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -5964,19 +5964,19 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>3.857489093553078</v>
+        <v/>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.270922342297059</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.184595610045482</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.077831566647191</v>
+        <v>164.6521159613462</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>1.002920337326282</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6039,19 +6039,19 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>17.03868887694788</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.243369390393894</v>
+        <v/>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6114,10 +6114,10 @@
         <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.351224105461394</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v/>
+        <v>17.36040882194728</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v/>
+        <v>1.134942521612494</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.100988314950311</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.586331738041511</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.3731778762978779</v>
+        <v>0.2424395832003273</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.3190430048767609</v>
+        <v>0.006646644468452611</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.02148382082443052</v>
+        <v>0.01602094395431397</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.004993030456393979</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01207589595826575</v>
+        <v>0.0007618533064827084</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.005945746482533147</v>
+        <v>5.236428292414953e-05</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.002695076595365063</v>
+        <v>0.001041224674144396</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.7365019230088642</v>
+        <v>0.007265247038473877</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.04025681523296367</v>
+        <v>0.009395398974721077</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3731778762978779</v>
+        <v>0.2424395832003273</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3190430048767609</v>
+        <v>0.006646644468452611</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.02148382082443052</v>
+        <v>0.01602094395431397</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.004993030456393979</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.01207589595826575</v>
+        <v>0.0007618533064827084</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.005945746482533147</v>
+        <v>5.236428292414953e-05</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.002695076595365063</v>
+        <v>0.001041224674144396</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.7365019230088642</v>
+        <v>0.007265247038473877</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.04025681523296367</v>
+        <v>0.009395398974721077</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.349373165344119</v>
+        <v>1.602966553268632</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.177337130401153</v>
+        <v>17.36040882194728</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v/>
+        <v>17.36040882194728</v>
       </c>
       <c r="Q3" s="22" t="n">
         <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>2.198727692929499</v>
+        <v>4.237749117253197</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>3.390738070881659</v>
+        <v>17.36040882194728</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v/>
+        <v>17.36040882194728</v>
       </c>
       <c r="U3" s="22" t="n">
         <v/>
       </c>
       <c r="V3" s="22" t="n">
-        <v>0.5886685652005765</v>
+        <v>17.36040882194728</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5035562121764636</v>
+        <v>0.3886225430585122</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.3756211758361668</v>
+        <v>0.1153884652664718</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.02148382082443052</v>
+        <v>0.2781301367603952</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.004993030456393979</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.02655160686037431</v>
+        <v>0.003228543177023527</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.02016046895813585</v>
+        <v>0.0009090653592313489</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.002695076595365063</v>
+        <v>0.01807608601864555</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7365019230088642</v>
+        <v>0.007265247038473877</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.04064304457202939</v>
+        <v>0.1631079672464622</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.193784211924527</v>
+        <v>1.360411997561332</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.360655345038204</v>
+        <v>2.146414417109101</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>7.954735259729414</v>
+        <v>1.127592874721669</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v/>
+        <v>1.134942521612494</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>3.312155455657978</v>
+        <v>3.831041919984081</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>3.745716526444841</v>
+        <v>5.757780123028363</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>10.44808898525048</v>
+        <v>1.067471260806247</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v/>
+        <v>1.134942521612494</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>4.657695302383809</v>
+        <v>1.637003645915385</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6011374559127792</v>
+        <v>0.5286867700995952</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.5110909606110156</v>
+        <v>0.2476714654160478</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.1708981070258065</v>
+        <v>0.3136175604563849</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.6424954133446027</v>
+        <v>0.005666802576667762</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.08794304951907457</v>
+        <v>0.01236868425165572</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.07551540175736766</v>
+        <v>0.005234198455915899</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.02815840009044008</v>
+        <v>0.01929570233276574</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7365019230088642</v>
+        <v>0.008245637793983242</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.2561462692916272</v>
+        <v>0.2767704950500573</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.133939946728844</v>
+        <v>1.094358009863163</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.038542779549328</v>
+        <v>1.093416572077185</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.111651362880486</v>
+        <v>1.089158310836869</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.24223925185089</v>
+        <v>1.096110374931795</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.218739458125691</v>
+        <v>1.103264975967873</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.071302778863979</v>
+        <v>1.090391845338595</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.155536611939613</v>
+        <v>1.033662771650104</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.175612052730697</v>
+        <v>1.050494157475156</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.075097071214907</v>
+        <v>1.091287441457027</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.6816537747344494</v>
+        <v>0.5785726015671768</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.5307898268355005</v>
+        <v>0.270808084716548</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.1899791135889329</v>
+        <v>0.3415791723954557</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7981330215908274</v>
+        <v>0.006211441096975763</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.1071796645167978</v>
+        <v>0.01364593613365715</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.08089985974969781</v>
+        <v>0.005707327313214564</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.03253806223814722</v>
+        <v>0.019945249154222</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8658405375485564</v>
+        <v>0.008661994327235727</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.279809451125492</v>
+        <v>0.3021042661524831</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.197609893979359</v>
+        <v>1.439217797066315</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.723455284314473</v>
+        <v>2.972436996127722</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>4.378601161134845</v>
+        <v>2.344627543299143</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.186974535410559</v>
+        <v>2.516427250746693</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>5.707333061069948</v>
+        <v>6.35445058225709</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>8.453210211191644</v>
+        <v>10.10248542723412</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>15.90642042238329</v>
+        <v>1.396582934510378</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.081123130131298</v>
+        <v>1.793165869020755</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>3.051028222724659</v>
+        <v>2.658532269713432</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.816355304890354</v>
+        <v>0.8326919850704392</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9147925319200074</v>
+        <v>0.8049599698619578</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8318427673518702</v>
+        <v>0.8008759358157115</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.947363572498598</v>
+        <v>0.01563063964283775</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.6117100427711055</v>
+        <v>0.08671242680996075</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.6838635205201173</v>
+        <v>0.05765819101020542</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.5175640976896434</v>
+        <v>0.02785519459334399</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9360802321490612</v>
+        <v>0.01553239258525051</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8713479586979457</v>
+        <v>0.8029127594893672</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.041090792754999</v>
+        <v>1.189437975568191</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.075769431081338</v>
+        <v>1.230785508085061</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.172116624614522</v>
+        <v>1.243172960851923</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.026430282159205</v>
+        <v>63.81913532872857</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.292204082702931</v>
+        <v>10.44498546570038</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.438306124054397</v>
+        <v>15.16747819855056</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.876612248108794</v>
+        <v>28.45834414899233</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.025943855549064</v>
+        <v>55.55070532044873</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.12394302784793</v>
+        <v>1.236979234468492</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8498999915380473</v>
+        <v>0.9904354689940411</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9841058416210431</v>
+        <v>0.9907330654946853</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9750167366784771</v>
+        <v>0.9956273084030723</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9724026590270886</v>
+        <v>0.9975339066408517</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.7904542146992074</v>
+        <v>0.9057100377256475</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9836050895814844</v>
+        <v>0.8745293551151547</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9712671249057611</v>
+        <v>0.7927127140745338</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9603657624742703</v>
+        <v>0.8628353634247738</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9795402052651752</v>
+        <v>0.9931741574252433</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.06741284936948</v>
+        <v>1.003765802073645</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.0068669474328</v>
+        <v>1.002868713521096</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.004747948551669</v>
+        <v>1.00254398494142</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1</v>
+        <v>1.000574873830532</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.13303535051015</v>
+        <v>1.064008542173728</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.006071214031175</v>
+        <v>1.088999878503684</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.008784648910822</v>
+        <v>1.169215108096546</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1</v>
+        <v>1.000973445775428</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.005807447992235</v>
+        <v>1.002706349231258</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9071941716467239</v>
+        <v>0.9941652529369907</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.990863644703766</v>
+        <v>0.9935751948354667</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.979646065981243</v>
+        <v>0.9981601692829167</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9724026590270886</v>
+        <v>0.998107362778848</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.8956125682139421</v>
+        <v>0.9636832168725782</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9895767666024863</v>
+        <v>0.9523623614683085</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9797993655966819</v>
+        <v>0.9268516816761625</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9603657624742703</v>
+        <v>0.8636752868641892</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9852229260219553</v>
+        <v>0.9958624047540179</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.031273012181425</v>
+        <v>1.003768588569559</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.008196801381666</v>
+        <v>1.004364700258759</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.019317721379107</v>
+        <v>1.001843221933415</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.0252602488997</v>
+        <v>1.001896226089228</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.053955191727557</v>
+        <v>1.03698015438185</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.00984623400031</v>
+        <v>1.049306872509134</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.01969246800062</v>
+        <v>1.078921277017648</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.039384936001239</v>
+        <v>1.157842554035296</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.013757261380386</v>
+        <v>1.003103961096087</v>
       </c>
     </row>
     <row r="10">
@@ -7215,31 +7215,31 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9355648660275493</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9439355160455348</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G10" s="34" t="n">
         <v>0.9993203710077243</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
@@ -7279,38 +7279,38 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9355648660275493</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9439355160455348</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G11" s="34" t="n">
         <v>0.9993203710077243</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.030168341814236</v>
+        <v>1</v>
       </c>
       <c r="O11" s="22" t="n">
         <v>1</v>
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.017848811752468</v>
+        <v>1</v>
       </c>
       <c r="S11" s="22" t="n">
         <v>1</v>
@@ -7343,38 +7343,38 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9637893066952582</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9607836433779003</v>
+        <v>0.9993203710077243</v>
       </c>
       <c r="G12" s="34" t="n">
         <v>0.9993203710077243</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.036518614863182</v>
+        <v>1</v>
       </c>
       <c r="O12" s="22" t="n">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.04010968327306</v>
+        <v>1</v>
       </c>
       <c r="S12" s="22" t="n">
         <v>1</v>
@@ -7407,16 +7407,16 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
         <v>0.9993203710077243</v>
@@ -7425,13 +7425,13 @@
         <v>0.9993203710077243</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7471,16 +7471,16 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
         <v>0.9993203710077243</v>
@@ -7489,13 +7489,13 @@
         <v>0.9993203710077243</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7535,16 +7535,16 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
         <v>0.9993203710077243</v>
@@ -7553,13 +7553,13 @@
         <v>0.9993203710077243</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7599,16 +7599,16 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
         <v>0.9993203710077243</v>
@@ -7617,13 +7617,13 @@
         <v>0.9993203710077243</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7663,16 +7663,16 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9989855571957159</v>
+        <v>0.997911852745462</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9985705957340072</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9969657922248426</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
         <v>0.9993203710077243</v>
@@ -7681,29 +7681,29 @@
         <v>0.9993203710077243</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.999094033250722</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9981897065671005</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9987780333639418</v>
+        <v>0.9989548351436683</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.001015472943505</v>
+        <v>1.002092516737619</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.001015472943505</v>
+        <v>1.002092516737619</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.001431450387283</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1.003043442211178</v>
+        <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
         <v>1.000680091201974</v>
@@ -7712,13 +7712,13 @@
         <v>1.000680091201974</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000906788269299</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1.001813576538597</v>
+        <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.001223461665394</v>
+        <v>1.001046258368809</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>4272.445</v>
+        <v>4057.166666666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v/>
+        <v>387.59</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>131.6</v>
+        <v>548.63</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>131.6</v>
+        <v>548.63</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>399.1799999999999</v>
+        <v>969.24</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>399.1799999999999</v>
+        <v>969.24</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>399.1799999999999</v>
+        <v>969.24</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>969.24</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>969.24</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>969.24</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>956.3199999999999</v>
+        <v>969.24</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>1454.97</v>
+        <v>969.24</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4233.755</v>
+        <v>4056.085</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8735,70 +8735,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v/>
+        <v>1404.76</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1693.31</v>
+        <v>1806.35</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2246.7</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2246.7</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2248.51</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2248.51</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2293.81</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2293.81</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>1693.31</v>
+        <v>2293.81</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2293.81</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2293.81</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2293.81</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2293.81</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2293.81</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2293.81</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>2116.44</v>
+        <v>2306.29</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>4154.583333333333</v>
+        <v>4047.085</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8862,67 +8862,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1639.99</v>
+        <v>145.65</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>2081.73</v>
+        <v>672.3099999999999</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>2081.73</v>
+        <v>781.6299999999999</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>2681.73</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>4124.095</v>
+        <v>4013.103333333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>395.48</v>
+        <v>37.2</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>410.37</v>
+        <v>37.2</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>530.25</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>564.48</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>564.48</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>564.48</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>564.48</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>985.09</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>4092.936666666667</v>
+        <v>3974.761666666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>466.56</v>
+        <v>74.08</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>513.0599999999999</v>
+        <v>169.63</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>530.38</v>
+        <v>170.46</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>530.38</v>
+        <v>170.46</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>530.38</v>
+        <v>170.46</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>530.38</v>
+        <v>170.46</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>950.99</v>
+        <v>170.46</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>4057.166666666667</v>
+        <v>3943.941666666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>387.59</v>
+        <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v>548.63</v>
+        <v>353.23</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>548.63</v>
+        <v>353.23</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>969.24</v>
+        <v>353.23</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>2306.29</v>
+        <v>254.8</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4056.085</v>
+        <v>3936.333333333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1404.76</v>
+        <v>215.06</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1806.35</v>
+        <v>254.8</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>2246.7</v>
+        <v>254.8</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>2246.7</v>
+        <v>254.8</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>2248.51</v>
+        <v>254.8</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>2248.51</v>
+        <v>254.8</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>2293.81</v>
+        <v>254.8</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>2306.29</v>
+        <v>254.8</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>2306.29</v>
+        <v>254.8</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>4047.085</v>
+        <v>3931.221666666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9497,52 +9497,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>145.65</v>
+        <v>345.05</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>672.3099999999999</v>
+        <v>345.05</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>781.6299999999999</v>
+        <v>360.36</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>393.11</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>393.11</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>393.11</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>413.83</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>4013.103333333333</v>
+        <v>3900.341666666667</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9624,49 +9624,49 @@
         <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>37.2</v>
+        <v>8.75</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>37.2</v>
+        <v>69.89</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>89.08</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>89.08</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>114.88</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>710.17</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>710.17</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>3974.761666666667</v>
+        <v>3892.478333333334</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9751,46 +9751,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>74.08</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>169.63</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>170.46</v>
+        <v/>
       </c>
       <c r="W17" s="22" t="n">
-        <v>170.46</v>
+        <v>26.23</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>170.46</v>
+        <v>2353.38</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>3943.941666666667</v>
+        <v>3878.116666666666</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9881,40 +9881,40 @@
         <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>353.23</v>
+        <v>41.26</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>353.23</v>
+        <v>159.16</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>353.23</v>
+        <v>202.28</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>353.23</v>
+        <v>239.62</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>353.23</v>
+        <v>258.27</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>3936.333333333333</v>
+        <v>3863.521666666666</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>215.06</v>
+        <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>254.8</v>
+        <v>18.61</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>254.8</v>
+        <v>317.09</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>254.8</v>
+        <v>317.09</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>254.8</v>
+        <v>394.26</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>413.83</v>
+        <v>71.75</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>3931.221666666667</v>
+        <v>3710.681666666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v>345.05</v>
+        <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>345.05</v>
+        <v/>
       </c>
       <c r="V20" s="22" t="n">
-        <v>360.36</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>393.11</v>
+        <v>71.75</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>393.11</v>
+        <v>71.75</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>393.11</v>
+        <v>71.75</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>413.83</v>
+        <v>71.75</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>413.83</v>
+        <v>71.75</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>413.83</v>
+        <v>71.75</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>413.83</v>
+        <v>71.75</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>413.83</v>
+        <v>71.75</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>794.0799999999999</v>
+        <v>148.62</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>3900.341666666667</v>
+        <v>3677.626666666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10280,34 +10280,34 @@
         <v/>
       </c>
       <c r="T21" s="22" t="n">
-        <v>8.75</v>
+        <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>69.89</v>
+        <v/>
       </c>
       <c r="V21" s="22" t="n">
-        <v>89.08</v>
+        <v>23.89</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>89.08</v>
+        <v>23.89</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>114.88</v>
+        <v>23.89</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>710.17</v>
+        <v>50.12</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>710.17</v>
+        <v>100.86</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>148.62</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>148.62</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>148.62</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>2353.38</v>
+        <v>20130.37</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>3892.478333333334</v>
+        <v>3674.496666666666</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10425,22 +10425,22 @@
         <v/>
       </c>
       <c r="W22" s="22" t="n">
-        <v>26.23</v>
+        <v/>
       </c>
       <c r="X22" s="22" t="n">
-        <v>2353.38</v>
+        <v>20130.37</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>2353.38</v>
+        <v>20130.37</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>2353.38</v>
+        <v>20130.37</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>2353.38</v>
+        <v>20130.37</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>2353.38</v>
+        <v>20130.37</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>258.27</v>
+        <v>4955.64</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>3878.116666666666</v>
+        <v>3651.176666666666</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10555,25 +10555,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>41.26</v>
+        <v/>
       </c>
       <c r="V23" s="22" t="n">
-        <v>159.16</v>
+        <v>30.01</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>202.28</v>
+        <v>30.01</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>239.62</v>
+        <v>30.01</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>258.27</v>
+        <v>4941.21</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>258.27</v>
+        <v>4955.64</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>258.27</v>
+        <v>4955.64</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>394.26</v>
+        <v>29.58</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>3863.521666666666</v>
+        <v>3634.736666666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>18.61</v>
+        <v/>
       </c>
       <c r="V24" s="22" t="n">
-        <v>317.09</v>
+        <v/>
       </c>
       <c r="W24" s="22" t="n">
-        <v>317.09</v>
+        <v/>
       </c>
       <c r="X24" s="22" t="n">
-        <v>394.26</v>
+        <v>29.58</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>394.26</v>
+        <v>29.58</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>394.26</v>
+        <v>29.58</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>71.75</v>
+        <v>18.59</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>3710.681666666667</v>
+        <v>3561.746666666666</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10831,19 +10831,19 @@
         <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>53.09999999999999</v>
+        <v>18.59</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>71.75</v>
+        <v>18.59</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>71.75</v>
+        <v>18.59</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>71.75</v>
+        <v>18.59</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>23.89</v>
+        <v>1042.99</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>3677.626666666667</v>
+        <v>3552.425</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v/>
+        <v>322.73</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>23.89</v>
+        <v>366.28</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>23.89</v>
+        <v>403.27</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>23.89</v>
+        <v>1042.99</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v/>
+        <v>11.63</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>3674.496666666666</v>
+        <v>3516.413333333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11113,7 +11113,7 @@
         <v/>
       </c>
       <c r="W27" s="22" t="n">
-        <v/>
+        <v>11.63</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>30.01</v>
+        <v/>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>3651.176666666666</v>
+        <v>3491.148333333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11248,7 +11248,7 @@
         <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>30.01</v>
+        <v/>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v/>
+        <v>2000</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>3634.736666666667</v>
+        <v>3432.901666666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>60</v>
@@ -11383,7 +11383,7 @@
         <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v/>
+        <v>2000</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>3561.746666666666</v>
+        <v>3404.695</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>3552.425</v>
+        <v>3393.415</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>

--- a/Process Results/Unified_IBNP_ASL.xlsx
+++ b/Process Results/Unified_IBNP_ASL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.004993030456393979</v>
+        <v>0.1240016056172039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01602094395431397</v>
+        <v>0.006649321872076054</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.006646644468452611</v>
+        <v>0.004554440878449508</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.009395398974721077</v>
+        <v>0.005406030817054028</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004993030456393979</v>
+        <v>0.1240016056172039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01602094395431397</v>
+        <v>0.006649321872076054</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006646644468452611</v>
+        <v>0.004554440878449508</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009395398974721077</v>
+        <v>0.005406030817054028</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.004993030456393979</v>
+        <v>0.1240016056172039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2781301367603952</v>
+        <v>0.1154349460879561</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1153884652664718</v>
+        <v>0.07906695560527217</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1631079672464622</v>
+        <v>0.09385090508810362</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.005666802576667762</v>
+        <v>0.316109853103601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3136175604563849</v>
+        <v>0.2703475866739251</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2476714654160478</v>
+        <v>0.1962391266935062</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2767704950500573</v>
+        <v>0.2274079942384027</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006211441096975763</v>
+        <v>0.348033254507724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3415791723954557</v>
+        <v>0.2944513208405962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.270808084716548</v>
+        <v>0.2162579013828532</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3021042661524831</v>
+        <v>0.2493686110744869</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01563063964283775</v>
+        <v>0.9971161974575372</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8008759358157115</v>
+        <v>0.8080481166265474</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8049599698619578</v>
+        <v>0.8096836978162488</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8029127594893672</v>
+        <v>0.8088650804076444</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9975339066408517</v>
+        <v>0.9971161974575372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9956273084030723</v>
+        <v>0.9955733987230979</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9907330654946853</v>
+        <v>0.9906182436536</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9931741574252433</v>
+        <v>0.9930896401227259</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.998107362778848</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9981601692829167</v>
+        <v>0.9981438168814724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9935751948354667</v>
+        <v>0.9934921652160136</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9958624047540179</v>
+        <v>0.9958125588654998</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4037,14 +4037,14 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4075,14 +4075,14 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4113,14 +4113,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4151,14 +4151,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4189,14 +4189,14 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4227,14 +4227,14 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4265,14 +4265,14 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4303,14 +4303,14 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4836,22 +4836,22 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.415490595732604</v>
+        <v>1.28587801474985</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1</v>
+        <v>1.243778891134055</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.76665512276033</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1</v>
+        <v>1.000805626029287</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>1.020146674909162</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>1.005440729615792</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -4911,22 +4911,22 @@
         <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.28587801474985</v>
+        <v>4.615928595949193</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.243778891134055</v>
+        <v>1.162603560857342</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v>1.071568389135525</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.000805626029287</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.020146674909162</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.005440729615792</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
@@ -4986,64 +4986,64 @@
         <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>4.615928595949193</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.162603560857342</v>
+        <v>18.04220430107527</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.071568389135525</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5061,61 +5061,61 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1</v>
+        <v>2.289821814254859</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>18.04220430107527</v>
+        <v>1.004893002417025</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5136,10 +5136,10 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>2.289821814254859</v>
+        <v/>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.004893002417025</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v/>
+        <v>1.184785641216405</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -5286,13 +5286,13 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.184785641216405</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v>1.044370381104188</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>1.090881340881341</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>1</v>
@@ -5301,37 +5301,37 @@
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.052707893464933</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,49 +5361,49 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v>7.987428571428572</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.044370381104188</v>
+        <v>1.274574331091715</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.090881340881341</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v>1.2896273013022</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>6.181841922005571</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.052707893464933</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.118154808003717</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5436,25 +5436,25 @@
         <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>7.987428571428572</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.274574331091715</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.2896273013022</v>
+        <v>89.72093023255815</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>6.181841922005571</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.118154808003717</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
         <v>1</v>
@@ -5514,16 +5514,16 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v/>
+        <v>3.857489093553078</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v/>
+        <v>1.270922342297059</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>89.72093023255815</v>
+        <v>1.184595610045482</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.077831566647191</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
@@ -5589,16 +5589,16 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>3.857489093553078</v>
+        <v>17.03868887694788</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.270922342297059</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.184595610045482</v>
+        <v>1.243369390393894</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.077831566647191</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -5664,13 +5664,13 @@
         <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>17.03868887694788</v>
+        <v/>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1</v>
+        <v>1.351224105461394</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.243369390393894</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>1</v>
@@ -5742,19 +5742,19 @@
         <v/>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.351224105461394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>2.097948932607786</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>2.012370311252993</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.473527662105889</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5817,19 +5817,19 @@
         <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="F51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v/>
       </c>
       <c r="G51" s="4" t="n">
-        <v>2.097948932607786</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>2.012370311252993</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.473527662105889</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
         <v>1</v>
@@ -5892,16 +5892,16 @@
         <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1</v>
+        <v>164.6521159613462</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.002920337326282</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5967,19 +5967,19 @@
         <v/>
       </c>
       <c r="E53" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v/>
+      </c>
+      <c r="G53" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="H53" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="G53" s="4" t="n">
-        <v>164.6521159613462</v>
-      </c>
-      <c r="H53" s="4" t="n">
-        <v>1.002920337326282</v>
-      </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6039,19 +6039,19 @@
         <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,16 +6111,16 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v/>
+        <v>17.36040882194728</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1</v>
+        <v>1.134942521612494</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.100988314950311</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>2.586331738041511</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>17.36040882194728</v>
+        <v/>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.134942521612494</v>
+        <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.100988314950311</v>
+        <v/>
       </c>
       <c r="F56" s="4" t="n">
-        <v>2.586331738041511</v>
+        <v>15.50902837489252</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6339,7 +6339,7 @@
         <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v/>
+        <v>2.54924</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.2424395832003273</v>
+        <v>0.1803900182037247</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.006646644468452611</v>
+        <v>0.004554440878449508</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.01602094395431397</v>
+        <v>0.006649321872076054</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.004993030456393979</v>
+        <v>0.1240016056172039</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.0007618533064827084</v>
+        <v>0.0006264344856356215</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>5.236428292414953e-05</v>
+        <v>5.092833366623081e-05</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.001041224674144396</v>
+        <v>0.0001978877985300615</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.007265247038473877</v>
+        <v>0.05592131960629387</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.009395398974721077</v>
+        <v>0.005406030817054028</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,38 +6767,38 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.2424395832003273</v>
+        <v>0.1803900182037247</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.006646644468452611</v>
+        <v>0.004554440878449508</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.01602094395431397</v>
+        <v>0.006649321872076054</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.004993030456393979</v>
+        <v>0.1240016056172039</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.0007618533064827084</v>
+        <v>0.0006264344856356215</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>5.236428292414953e-05</v>
+        <v>5.092833366623081e-05</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.001041224674144396</v>
+        <v>0.0001978877985300615</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.007265247038473877</v>
+        <v>0.05592131960629387</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.009395398974721077</v>
+        <v>0.005406030817054028</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.602966553268632</v>
+        <v>1.635273926923179</v>
       </c>
       <c r="O3" s="22" t="n">
         <v>17.36040882194728</v>
@@ -6810,7 +6810,7 @@
         <v/>
       </c>
       <c r="R3" s="22" t="n">
-        <v>4.237749117253197</v>
+        <v>4.590531432443271</v>
       </c>
       <c r="S3" s="22" t="n">
         <v>17.36040882194728</v>
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.3886225430585122</v>
+        <v>0.2949870934457487</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.1153884652664718</v>
+        <v>0.07906695560527217</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.2781301367603952</v>
+        <v>0.1154349460879561</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.004993030456393979</v>
+        <v>0.1240016056172039</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.003228543177023527</v>
+        <v>0.002875667196676753</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.0009090653592313489</v>
+        <v>0.0008841366930663082</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.01807608601864555</v>
+        <v>0.003435413083357007</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.007265247038473877</v>
+        <v>0.05592131960629387</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.1631079672464622</v>
+        <v>0.09385090508810362</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.360411997561332</v>
+        <v>1.781940045665463</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>2.146414417109101</v>
+        <v>2.48193604004681</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.127592874721669</v>
+        <v>2.341990842772453</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.134942521612494</v>
+        <v>2.54924</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>3.831041919984081</v>
+        <v>3.950214227676388</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>5.757780123028363</v>
+        <v>5.11607209842269</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.067471260806247</v>
+        <v>1.561394173870831</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.134942521612494</v>
+        <v>2.54924</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.637003645915385</v>
+        <v>2.411963441409632</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.5286867700995952</v>
+        <v>0.5256493147654397</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.2476714654160478</v>
+        <v>0.1962391266935062</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.3136175604563849</v>
+        <v>0.2703475866739251</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.005666802576667762</v>
+        <v>0.316109853103601</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.01236868425165572</v>
+        <v>0.01135950147437479</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.005234198455915899</v>
+        <v>0.004523307066588246</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.01929570233276574</v>
+        <v>0.005364033973193258</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.008245637793983242</v>
+        <v>0.1425568647931486</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.2767704950500573</v>
+        <v>0.2274079942384027</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.094358009863163</v>
+        <v>1.03179516754162</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.093416572077185</v>
+        <v>1.102012147254473</v>
       </c>
       <c r="P5" s="22" t="n">
         <v>1.089158310836869</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.096110374931795</v>
+        <v>1.100988314950311</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.103264975967873</v>
+        <v>1.059038966181709</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.090391845338595</v>
+        <v>1.103304966101252</v>
       </c>
       <c r="T5" s="22" t="n">
         <v>1.033662771650104</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.050494157475156</v>
+        <v>1.100988314950311</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.091287441457027</v>
+        <v>1.095585229045671</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.5785726015671768</v>
+        <v>0.5423624227965447</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.270808084716548</v>
+        <v>0.2162579013828532</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.3415791723954557</v>
+        <v>0.2944513208405962</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.006211441096975763</v>
+        <v>0.348033254507724</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.01364593613365715</v>
+        <v>0.01203015469776147</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.005707327313214564</v>
+        <v>0.004990587149767699</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.019945249154222</v>
+        <v>0.005544602223956262</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.008661994327235727</v>
+        <v>0.1569534423532081</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.3021042661524831</v>
+        <v>0.2493686110744869</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.439217797066315</v>
+        <v>1.535501547168209</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>2.972436996127722</v>
+        <v>3.744065269471109</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>2.344627543299143</v>
+        <v>2.744250269687163</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>2.516427250746693</v>
+        <v>2.865002652887033</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>6.35445058225709</v>
+        <v>7.207922839603708</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>10.10248542723412</v>
+        <v>11.55338826472338</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.396582934510378</v>
+        <v>5.023840028233507</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.793165869020755</v>
+        <v>6.365120037644676</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>2.658532269713432</v>
+        <v>3.244157769579136</v>
       </c>
     </row>
     <row r="7">
@@ -7023,16 +7023,16 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8326919850704392</v>
+        <v>0.8327983393299926</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8049599698619578</v>
+        <v>0.8096836978162488</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8008759358157115</v>
+        <v>0.8080481166265474</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.01563063964283775</v>
+        <v>0.9971161974575372</v>
       </c>
       <c r="F7" s="34" t="n">
         <v>0.08671242680996075</v>
@@ -7044,26 +7044,26 @@
         <v>0.02785519459334399</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.01553239258525051</v>
+        <v>0.9990275008997133</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8029127594893672</v>
+        <v>0.8088650804076444</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.189437975568191</v>
+        <v>1.188962416651547</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.230785508085061</v>
+        <v>1.223463244135135</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.243172960851923</v>
+        <v>1.232071925220783</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>63.81913532872857</v>
+        <v>1</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>10.44498546570038</v>
@@ -7075,10 +7075,10 @@
         <v>28.45834414899233</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>55.55070532044873</v>
+        <v>1</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.236979234468492</v>
+        <v>1.227767584677959</v>
       </c>
     </row>
     <row r="8">
@@ -7087,16 +7087,16 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9904354689940411</v>
+        <v>0.9901659261131833</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9907330654946853</v>
+        <v>0.9906182436536</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9956273084030723</v>
+        <v>0.9955733987230979</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9975339066408517</v>
+        <v>0.9971161974575372</v>
       </c>
       <c r="F8" s="34" t="n">
         <v>0.9057100377256475</v>
@@ -7108,26 +7108,26 @@
         <v>0.7927127140745338</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.8628353634247738</v>
+        <v>0.9990275008997133</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9931741574252433</v>
+        <v>0.9930896401227259</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.003765802073645</v>
+        <v>1.003871447521214</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.002868713521096</v>
+        <v>1.002901139344874</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.00254398494142</v>
+        <v>1.002581846965448</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.000574873830532</v>
+        <v>1.002892142911544</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>1.064008542173728</v>
@@ -7142,7 +7142,7 @@
         <v>1.000973445775428</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.002706349231258</v>
+        <v>1.002741493155161</v>
       </c>
     </row>
     <row r="9">
@@ -7151,16 +7151,16 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9941652529369907</v>
+        <v>0.9939993015334252</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9935751948354667</v>
+        <v>0.9934921652160136</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9981601692829167</v>
+        <v>0.9981438168814724</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.998107362778848</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
         <v>0.9636832168725782</v>
@@ -7172,26 +7172,26 @@
         <v>0.9268516816761625</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.8636752868641892</v>
+        <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9958624047540179</v>
+        <v>0.9958125588654998</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.003768588569559</v>
+        <v>1.00387274387742</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004364700258759</v>
+        <v>1.004385179047323</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001843221933415</v>
+        <v>1.001859634941513</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.001896226089228</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.03698015438185</v>
@@ -7203,10 +7203,10 @@
         <v>1.078921277017648</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.157842554035296</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.003103961096087</v>
+        <v>1.003122406994418</v>
       </c>
     </row>
     <row r="10">
@@ -7215,10 +7215,10 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D10" s="34" t="n">
         <v>1</v>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
@@ -7279,10 +7279,10 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D11" s="34" t="n">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
@@ -7343,10 +7343,10 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
@@ -7407,10 +7407,10 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D13" s="34" t="n">
         <v>1</v>
@@ -7431,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7471,10 +7471,10 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D14" s="34" t="n">
         <v>1</v>
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7535,10 +7535,10 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D15" s="34" t="n">
         <v>1</v>
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7599,10 +7599,10 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D16" s="34" t="n">
         <v>1</v>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7663,10 +7663,10 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.997911852745462</v>
+        <v>0.997848806242599</v>
       </c>
       <c r="D17" s="34" t="n">
         <v>1</v>
@@ -7687,17 +7687,17 @@
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9989548351436683</v>
+        <v>0.9989232449669468</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.002092516737619</v>
+        <v>1.002155831368383</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.002092516737619</v>
+        <v>1.002155831368383</v>
       </c>
       <c r="P17" s="22" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.001046258368809</v>
+        <v>1.001077915684191</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>4057.166666666667</v>
+        <v>4056.085</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v>387.59</v>
+        <v>1404.76</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>548.63</v>
+        <v>1806.35</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>548.63</v>
+        <v>2246.7</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>969.24</v>
+        <v>2246.7</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>969.24</v>
+        <v>2248.51</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>969.24</v>
+        <v>2248.51</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>969.24</v>
+        <v>2293.81</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>969.24</v>
+        <v>2306.29</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4056.085</v>
+        <v>4047.085</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8735,70 +8735,70 @@
         <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1404.76</v>
+        <v>145.65</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1806.35</v>
+        <v>672.3099999999999</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>2246.7</v>
+        <v>781.6299999999999</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>2246.7</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>2248.51</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>2248.51</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>2293.81</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>2306.29</v>
+        <v>837.5699999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>4047.085</v>
+        <v>4013.103333333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8862,67 +8862,67 @@
         <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>145.65</v>
+        <v>37.2</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>672.3099999999999</v>
+        <v>37.2</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>781.6299999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>837.5699999999999</v>
+        <v>671.1700000000001</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>4013.103333333333</v>
+        <v>3974.761666666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8989,64 +8989,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>37.2</v>
+        <v>74.08</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>37.2</v>
+        <v>169.63</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>671.1700000000001</v>
+        <v>170.46</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>3974.761666666667</v>
+        <v>3943.941666666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9116,61 +9116,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>74.08</v>
+        <v/>
       </c>
       <c r="U12" s="22" t="n">
-        <v>169.63</v>
+        <v>353.23</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>170.46</v>
+        <v>353.23</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>3943.941666666667</v>
+        <v>3936.333333333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v/>
+        <v>215.06</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>353.23</v>
+        <v>254.8</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>3936.333333333333</v>
+        <v>3931.221666666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9370,55 +9370,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>215.06</v>
+        <v>345.05</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>254.8</v>
+        <v>345.05</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>254.8</v>
+        <v>360.36</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>254.8</v>
+        <v>393.11</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>254.8</v>
+        <v>393.11</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>254.8</v>
+        <v>393.11</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>254.8</v>
+        <v>413.83</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>3931.221666666667</v>
+        <v>3900.341666666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9497,52 +9497,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>345.05</v>
+        <v>8.75</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>345.05</v>
+        <v>69.89</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>360.36</v>
+        <v>89.08</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>393.11</v>
+        <v>89.08</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>393.11</v>
+        <v>114.88</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>393.11</v>
+        <v>710.17</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>413.83</v>
+        <v>710.17</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>413.83</v>
+        <v>794.0799999999999</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>3900.341666666667</v>
+        <v>3892.478333333334</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9624,49 +9624,49 @@
         <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>8.75</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>69.89</v>
+        <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v>89.08</v>
+        <v/>
       </c>
       <c r="W16" s="22" t="n">
-        <v>89.08</v>
+        <v>26.23</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>114.88</v>
+        <v>2353.38</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>710.17</v>
+        <v>2353.38</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>710.17</v>
+        <v>2353.38</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>794.0799999999999</v>
+        <v>2353.38</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>3892.478333333334</v>
+        <v>3878.116666666666</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9754,43 +9754,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v/>
+        <v>41.26</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v/>
+        <v>159.16</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>26.23</v>
+        <v>202.28</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>2353.38</v>
+        <v>239.62</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>2353.38</v>
+        <v>258.27</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>3878.116666666666</v>
+        <v>3863.521666666666</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9881,40 +9881,40 @@
         <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>41.26</v>
+        <v>18.61</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>159.16</v>
+        <v>317.09</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>202.28</v>
+        <v>317.09</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>239.62</v>
+        <v>394.26</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>258.27</v>
+        <v>394.26</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>3863.521666666666</v>
+        <v>3710.681666666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10011,37 +10011,37 @@
         <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>18.61</v>
+        <v/>
       </c>
       <c r="V19" s="22" t="n">
-        <v>317.09</v>
+        <v>53.09999999999999</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>317.09</v>
+        <v>71.75</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>394.26</v>
+        <v>71.75</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>3710.681666666667</v>
+        <v>3677.626666666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10150,31 +10150,31 @@
         <v/>
       </c>
       <c r="V20" s="22" t="n">
-        <v>53.09999999999999</v>
+        <v>23.89</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>71.75</v>
+        <v>23.89</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>71.75</v>
+        <v>23.89</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>71.75</v>
+        <v>50.12</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>71.75</v>
+        <v>100.86</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>71.75</v>
+        <v>148.62</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>3677.626666666667</v>
+        <v>3674.496666666666</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10286,28 +10286,28 @@
         <v/>
       </c>
       <c r="V21" s="22" t="n">
-        <v>23.89</v>
+        <v/>
       </c>
       <c r="W21" s="22" t="n">
-        <v>23.89</v>
+        <v/>
       </c>
       <c r="X21" s="22" t="n">
-        <v>23.89</v>
+        <v>20130.37</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>50.12</v>
+        <v>20130.37</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>100.86</v>
+        <v>20130.37</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>148.62</v>
+        <v>20130.37</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>3674.496666666666</v>
+        <v>3651.176666666666</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10422,25 +10422,25 @@
         <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v/>
+        <v>30.01</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v/>
+        <v>30.01</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>20130.37</v>
+        <v>30.01</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>20130.37</v>
+        <v>4941.21</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>20130.37</v>
+        <v>4955.64</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>3651.176666666666</v>
+        <v>3634.736666666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10558,22 +10558,22 @@
         <v/>
       </c>
       <c r="V23" s="22" t="n">
-        <v>30.01</v>
+        <v/>
       </c>
       <c r="W23" s="22" t="n">
-        <v>30.01</v>
+        <v/>
       </c>
       <c r="X23" s="22" t="n">
-        <v>30.01</v>
+        <v>29.58</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>4941.21</v>
+        <v>29.58</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>4955.64</v>
+        <v>29.58</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>3634.736666666667</v>
+        <v>3561.746666666666</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10693,22 +10693,22 @@
         <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>29.58</v>
+        <v>18.59</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>3561.746666666666</v>
+        <v>3552.425</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v/>
+        <v>18.59</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>18.59</v>
+        <v>322.73</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>18.59</v>
+        <v>366.28</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>18.59</v>
+        <v>403.27</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>18.59</v>
+        <v>1042.99</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>1042.99</v>
+        <v>180.37</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>3552.425</v>
+        <v>3516.413333333333</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10966,19 +10966,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>18.59</v>
+        <v/>
       </c>
       <c r="U26" s="22" t="n">
-        <v>322.73</v>
+        <v/>
       </c>
       <c r="V26" s="22" t="n">
-        <v>366.28</v>
+        <v/>
       </c>
       <c r="W26" s="22" t="n">
-        <v>403.27</v>
+        <v>11.63</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>1042.99</v>
+        <v>180.37</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>11.63</v>
+        <v/>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>3516.413333333333</v>
+        <v>3491.148333333333</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11113,7 +11113,7 @@
         <v/>
       </c>
       <c r="W27" s="22" t="n">
-        <v>11.63</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v/>
+        <v>5098.48</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>3491.148333333333</v>
+        <v>3432.901666666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11245,10 +11245,10 @@
         <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v/>
+        <v>2000</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v/>
+        <v>5098.48</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>2000</v>
+        <v/>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>3432.901666666667</v>
+        <v>3404.695</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>60</v>
@@ -11383,7 +11383,7 @@
         <v/>
       </c>
       <c r="U29" s="22" t="n">
-        <v>2000</v>
+        <v/>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>3404.695</v>
+        <v>3393.415</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>3393.415</v>
+        <v>3351.325</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>
